--- a/excel/SWH_capacity_formatting.xlsx
+++ b/excel/SWH_capacity_formatting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EECA_SWH_LCA\EECA_SWH_LCA\EECA_SWH_LCA\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80152679-4B02-4C96-94BB-4606B8473949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98FE926-54E5-490A-9FFC-6CF333A5F628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{6082697E-4C28-401D-8DB0-60DD22A0610C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6082697E-4C28-401D-8DB0-60DD22A0610C}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Results!$A$1:$F$81</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -212,7 +213,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -462,7 +463,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,12 +484,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -951,24 +946,24 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R195"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:P195"/>
+    <sheetView topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="G136" sqref="G136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="16" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1021,7 +1016,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1069,14 +1064,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E2&amp;"|"&amp;B2,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>1007.0588235294117</v>
+        <v>1057.4117647058824</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1124,14 +1119,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E3&amp;"|"&amp;B3,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>1007.0588235294117</v>
+        <v>1057.4117647058824</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1179,14 +1174,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E4&amp;"|"&amp;B4,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>1007.0588235294117</v>
+        <v>1057.4117647058824</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1234,14 +1229,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E5&amp;"|"&amp;B5,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>1007.0588235294117</v>
+        <v>1057.4117647058824</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -1289,14 +1284,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E6&amp;"|"&amp;B6,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>1510.5882352941176</v>
+        <v>1586.1176470588239</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -1344,14 +1339,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E7&amp;"|"&amp;B7,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>1510.5882352941176</v>
+        <v>1586.1176470588239</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1399,14 +1394,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E8&amp;"|"&amp;B8,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>1510.5882352941176</v>
+        <v>1586.1176470588239</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -1454,14 +1449,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E9&amp;"|"&amp;B9,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>1510.5882352941176</v>
+        <v>1586.1176470588239</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1509,14 +1504,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E10&amp;"|"&amp;B10,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>1007.0588235294117</v>
+        <v>1057.4117647058824</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
@@ -1564,14 +1559,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E11&amp;"|"&amp;B11,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>1007.0588235294117</v>
+        <v>1057.4117647058824</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -1619,14 +1614,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E12&amp;"|"&amp;B12,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>1007.0588235294117</v>
+        <v>1057.4117647058824</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
@@ -1674,14 +1669,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E13&amp;"|"&amp;B13,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>1007.0588235294117</v>
+        <v>1057.4117647058824</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
@@ -1729,14 +1724,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E14&amp;"|"&amp;B14,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>1510.5882352941176</v>
+        <v>1586.1176470588239</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>8</v>
       </c>
@@ -1784,14 +1779,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E15&amp;"|"&amp;B15,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>1510.5882352941176</v>
+        <v>1586.1176470588239</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>9</v>
       </c>
@@ -1839,14 +1834,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E16&amp;"|"&amp;B16,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>1510.5882352941176</v>
+        <v>1586.1176470588239</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>10</v>
       </c>
@@ -1894,14 +1889,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E17&amp;"|"&amp;B17,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>1510.5882352941176</v>
+        <v>1586.1176470588239</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1949,14 +1944,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E18&amp;"|"&amp;B18,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>503.52941176470586</v>
+        <v>528.70588235294122</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>2</v>
       </c>
@@ -2004,14 +1999,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E19&amp;"|"&amp;B19,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>503.52941176470586</v>
+        <v>528.70588235294122</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
@@ -2059,14 +2054,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E20&amp;"|"&amp;B20,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>503.52941176470586</v>
+        <v>528.70588235294122</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>6</v>
       </c>
@@ -2114,14 +2109,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E21&amp;"|"&amp;B21,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>503.52941176470586</v>
+        <v>528.70588235294122</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>7</v>
       </c>
@@ -2169,14 +2164,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E22&amp;"|"&amp;B22,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>1007.0588235294117</v>
+        <v>1057.4117647058824</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>8</v>
       </c>
@@ -2224,14 +2219,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E23&amp;"|"&amp;B23,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>1007.0588235294117</v>
+        <v>1057.4117647058824</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>9</v>
       </c>
@@ -2279,14 +2274,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E24&amp;"|"&amp;B24,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>1007.0588235294117</v>
+        <v>1057.4117647058824</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>10</v>
       </c>
@@ -2334,14 +2329,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E25&amp;"|"&amp;B25,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>1007.0588235294117</v>
+        <v>1057.4117647058824</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>4</v>
       </c>
@@ -2389,14 +2384,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E26&amp;"|"&amp;B26,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>503.52941176470586</v>
+        <v>528.70588235294122</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>2</v>
       </c>
@@ -2444,14 +2439,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E27&amp;"|"&amp;B27,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>503.52941176470586</v>
+        <v>528.70588235294122</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
@@ -2499,14 +2494,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E28&amp;"|"&amp;B28,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>503.52941176470586</v>
+        <v>528.70588235294122</v>
       </c>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>6</v>
       </c>
@@ -2554,14 +2549,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E29&amp;"|"&amp;B29,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>503.52941176470586</v>
+        <v>528.70588235294122</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>7</v>
       </c>
@@ -2609,14 +2604,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E30&amp;"|"&amp;B30,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>1007.0588235294117</v>
+        <v>1057.4117647058824</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>8</v>
       </c>
@@ -2664,14 +2659,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E31&amp;"|"&amp;B31,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>1007.0588235294117</v>
+        <v>1057.4117647058824</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>9</v>
       </c>
@@ -2719,14 +2714,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E32&amp;"|"&amp;B32,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>1007.0588235294117</v>
+        <v>1057.4117647058824</v>
       </c>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>10</v>
       </c>
@@ -2774,14 +2769,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E33&amp;"|"&amp;B33,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>1007.0588235294117</v>
+        <v>1057.4117647058824</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>4</v>
       </c>
@@ -2829,14 +2824,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E34&amp;"|"&amp;B34,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>503.52941176470586</v>
+        <v>528.70588235294122</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>2</v>
       </c>
@@ -2884,14 +2879,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E35&amp;"|"&amp;B35,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>503.52941176470586</v>
+        <v>528.70588235294122</v>
       </c>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>5</v>
       </c>
@@ -2939,14 +2934,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E36&amp;"|"&amp;B36,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>503.52941176470586</v>
+        <v>528.70588235294122</v>
       </c>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>6</v>
       </c>
@@ -2994,14 +2989,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E37&amp;"|"&amp;B37,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>503.52941176470586</v>
+        <v>528.70588235294122</v>
       </c>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>7</v>
       </c>
@@ -3049,14 +3044,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E38&amp;"|"&amp;B38,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>503.52941176470586</v>
+        <v>528.70588235294122</v>
       </c>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>8</v>
       </c>
@@ -3104,14 +3099,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E39&amp;"|"&amp;B39,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>503.52941176470586</v>
+        <v>528.70588235294122</v>
       </c>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>9</v>
       </c>
@@ -3159,14 +3154,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E40&amp;"|"&amp;B40,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>503.52941176470586</v>
+        <v>528.70588235294122</v>
       </c>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>10</v>
       </c>
@@ -3214,14 +3209,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E41&amp;"|"&amp;B41,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>503.52941176470586</v>
+        <v>528.70588235294122</v>
       </c>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -3269,14 +3264,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E42&amp;"|"&amp;B42,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>503.52941176470586</v>
+        <v>528.70588235294122</v>
       </c>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>2</v>
       </c>
@@ -3324,14 +3319,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E43&amp;"|"&amp;B43,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>503.52941176470586</v>
+        <v>528.70588235294122</v>
       </c>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>5</v>
       </c>
@@ -3379,14 +3374,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E44&amp;"|"&amp;B44,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>503.52941176470586</v>
+        <v>528.70588235294122</v>
       </c>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>6</v>
       </c>
@@ -3434,14 +3429,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E45&amp;"|"&amp;B45,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>503.52941176470586</v>
+        <v>528.70588235294122</v>
       </c>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>7</v>
       </c>
@@ -3489,14 +3484,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E46&amp;"|"&amp;B46,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>503.52941176470586</v>
+        <v>528.70588235294122</v>
       </c>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>8</v>
       </c>
@@ -3544,14 +3539,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E47&amp;"|"&amp;B47,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>503.52941176470586</v>
+        <v>528.70588235294122</v>
       </c>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>9</v>
       </c>
@@ -3599,14 +3594,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E48&amp;"|"&amp;B48,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>503.52941176470586</v>
+        <v>528.70588235294122</v>
       </c>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>10</v>
       </c>
@@ -3654,14 +3649,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E49&amp;"|"&amp;B49,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>503.52941176470586</v>
+        <v>528.70588235294122</v>
       </c>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>4</v>
       </c>
@@ -3707,14 +3702,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E50&amp;"|"&amp;B50,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>1267.6632889567977</v>
+        <v>1331.0464534046375</v>
       </c>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>2</v>
       </c>
@@ -3760,14 +3755,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E51&amp;"|"&amp;B51,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>1267.6632889567977</v>
+        <v>1331.0464534046375</v>
       </c>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>5</v>
       </c>
@@ -3813,14 +3808,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E52&amp;"|"&amp;B52,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>817.14705882352939</v>
+        <v>858.00441176470588</v>
       </c>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>6</v>
       </c>
@@ -3866,14 +3861,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E53&amp;"|"&amp;B53,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>817.14705882352939</v>
+        <v>858.00441176470588</v>
       </c>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>7</v>
       </c>
@@ -3919,14 +3914,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E54&amp;"|"&amp;B54,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>1267.6632889567977</v>
+        <v>1331.0464534046375</v>
       </c>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
       <c r="P54" s="5"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>8</v>
       </c>
@@ -3972,14 +3967,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E55&amp;"|"&amp;B55,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>1267.6632889567977</v>
+        <v>1331.0464534046375</v>
       </c>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
       <c r="P55" s="5"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>9</v>
       </c>
@@ -4025,14 +4020,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E56&amp;"|"&amp;B56,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>858.00441176470588</v>
+        <v>900.90463235294112</v>
       </c>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
       <c r="P56" s="5"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>10</v>
       </c>
@@ -4078,14 +4073,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E57&amp;"|"&amp;B57,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>858.00441176470588</v>
+        <v>900.90463235294112</v>
       </c>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
       <c r="P57" s="5"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>4</v>
       </c>
@@ -4131,14 +4126,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E58&amp;"|"&amp;B58,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>1966.5618285188073</v>
+        <v>2064.8899199447478</v>
       </c>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
       <c r="P58" s="5"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>2</v>
       </c>
@@ -4184,14 +4179,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E59&amp;"|"&amp;B59,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>1966.5618285188073</v>
+        <v>2064.8899199447478</v>
       </c>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
       <c r="P59" s="5"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>5</v>
       </c>
@@ -4237,14 +4232,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E60&amp;"|"&amp;B60,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>993.24735716911789</v>
+        <v>1042.9097250275738</v>
       </c>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
       <c r="P60" s="5"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>6</v>
       </c>
@@ -4290,14 +4285,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E61&amp;"|"&amp;B61,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>993.24735716911789</v>
+        <v>1042.9097250275738</v>
       </c>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>7</v>
       </c>
@@ -4343,14 +4338,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E62&amp;"|"&amp;B62,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>1966.5618285188073</v>
+        <v>2064.8899199447478</v>
       </c>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>8</v>
       </c>
@@ -4396,14 +4391,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E63&amp;"|"&amp;B63,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>1966.5618285188073</v>
+        <v>2064.8899199447478</v>
       </c>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
       <c r="P63" s="5"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>9</v>
       </c>
@@ -4449,14 +4444,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E64&amp;"|"&amp;B64,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>1467.4787148786133</v>
+        <v>1540.8526506225442</v>
       </c>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
       <c r="P64" s="5"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>10</v>
       </c>
@@ -4502,14 +4497,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E65&amp;"|"&amp;B65,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>1467.4787148786133</v>
+        <v>1540.8526506225442</v>
       </c>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
       <c r="P65" s="5"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>4</v>
       </c>
@@ -4555,14 +4550,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E66&amp;"|"&amp;B66,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>858.00441176470588</v>
+        <v>900.90463235294112</v>
       </c>
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
       <c r="P66" s="5"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>2</v>
       </c>
@@ -4608,14 +4603,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E67&amp;"|"&amp;B67,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>858.00441176470588</v>
+        <v>900.90463235294112</v>
       </c>
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
       <c r="O67" s="5"/>
       <c r="P67" s="5"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>5</v>
       </c>
@@ -4661,14 +4656,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E68&amp;"|"&amp;B68,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>705.88235294117646</v>
+        <v>741.17647058823525</v>
       </c>
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
       <c r="P68" s="5"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>6</v>
       </c>
@@ -4714,14 +4709,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E69&amp;"|"&amp;B69,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>705.88235294117646</v>
+        <v>741.17647058823525</v>
       </c>
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
       <c r="P69" s="5"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>7</v>
       </c>
@@ -4767,14 +4762,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E70&amp;"|"&amp;B70,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>945.94986397058847</v>
+        <v>993.24735716911789</v>
       </c>
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
       <c r="O70" s="5"/>
       <c r="P70" s="5"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>8</v>
       </c>
@@ -4820,14 +4815,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E71&amp;"|"&amp;B71,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>945.94986397058847</v>
+        <v>993.24735716911789</v>
       </c>
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
       <c r="O71" s="5"/>
       <c r="P71" s="5"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>9</v>
       </c>
@@ -4873,14 +4868,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E72&amp;"|"&amp;B72,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>705.88235294117646</v>
+        <v>741.17647058823525</v>
       </c>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>10</v>
       </c>
@@ -4926,14 +4921,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E73&amp;"|"&amp;B73,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>705.88235294117646</v>
+        <v>741.17647058823525</v>
       </c>
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
       <c r="P73" s="5"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>4</v>
       </c>
@@ -4979,14 +4974,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E74&amp;"|"&amp;B74,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>993.24735716911789</v>
+        <v>1042.9097250275738</v>
       </c>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
       <c r="P74" s="5"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>2</v>
       </c>
@@ -5032,14 +5027,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E75&amp;"|"&amp;B75,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>993.24735716911789</v>
+        <v>1042.9097250275738</v>
       </c>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
       <c r="O75" s="5"/>
       <c r="P75" s="5"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>5</v>
       </c>
@@ -5085,14 +5080,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E76&amp;"|"&amp;B76,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>705.88235294117646</v>
+        <v>741.17647058823525</v>
       </c>
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
       <c r="O76" s="5"/>
       <c r="P76" s="5"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>6</v>
       </c>
@@ -5138,14 +5133,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E77&amp;"|"&amp;B77,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>705.88235294117646</v>
+        <v>741.17647058823525</v>
       </c>
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
       <c r="O77" s="5"/>
       <c r="P77" s="5"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>7</v>
       </c>
@@ -5191,14 +5186,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E78&amp;"|"&amp;B78,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>1042.9097250275738</v>
+        <v>1095.0552112789526</v>
       </c>
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
       <c r="O78" s="5"/>
       <c r="P78" s="5"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>8</v>
       </c>
@@ -5244,14 +5239,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E79&amp;"|"&amp;B79,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>1042.9097250275738</v>
+        <v>1095.0552112789526</v>
       </c>
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
       <c r="O79" s="5"/>
       <c r="P79" s="5"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>9</v>
       </c>
@@ -5297,14 +5292,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E80&amp;"|"&amp;B80,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>945.94986397058847</v>
+        <v>993.24735716911789</v>
       </c>
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
       <c r="P80" s="5"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>10</v>
       </c>
@@ -5350,14 +5345,14 @@
         Calculate_cap_emi!$AC$14:$AC$21, "Not found", 0),"HPl",_xlfn.XLOOKUP(E81&amp;"|"&amp;B81,
         Calculate_cap_emi!$I$14:$I$21&amp;"|"&amp;Calculate_cap_emi!$L$14:$L$21,
         Calculate_cap_emi!$AF$14:$AF$21, "Not found", 0),"Missing")</f>
-        <v>945.94986397058847</v>
+        <v>993.24735716911789</v>
       </c>
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
       <c r="P81" s="5"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -5376,14 +5371,14 @@
       </c>
       <c r="L82" s="8">
         <f>LOOKUP(K82,embodied_original!$C$8:$H$8,embodied_original!$C$10:$H$10)</f>
-        <v>294.11764705882354</v>
+        <v>308.8235294117647</v>
       </c>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
       <c r="P82" s="5"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -5401,14 +5396,14 @@
       </c>
       <c r="L83" s="8">
         <f>LOOKUP(K83,embodied_original!$C$8:$H$8,embodied_original!$C$10:$H$10)</f>
-        <v>352.94117647058823</v>
+        <v>370.58823529411762</v>
       </c>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
       <c r="P83" s="5"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -5426,14 +5421,14 @@
       </c>
       <c r="L84" s="8">
         <f>LOOKUP(K84,embodied_original!$C$8:$H$8,embodied_original!$C$10:$H$10)</f>
-        <v>376.47058823529414</v>
+        <v>395.29411764705884</v>
       </c>
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
       <c r="P84" s="5"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -5451,14 +5446,14 @@
       </c>
       <c r="L85" s="8">
         <f>LOOKUP(K85,embodied_original!$C$8:$H$8,embodied_original!$C$10:$H$10)</f>
-        <v>470.58823529411762</v>
+        <v>494.11764705882354</v>
       </c>
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
       <c r="P85" s="5"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -5476,14 +5471,14 @@
       </c>
       <c r="L86" s="8">
         <f>LOOKUP(K86,embodied_original!$C$8:$H$8,embodied_original!$C$10:$H$10)</f>
-        <v>588.23529411764707</v>
+        <v>617.64705882352939</v>
       </c>
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
       <c r="O86" s="5"/>
       <c r="P86" s="5"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -5501,14 +5496,14 @@
       </c>
       <c r="L87" s="8">
         <f>LOOKUP(K87,embodied_original!$C$8:$H$8,embodied_original!$C$10:$H$10)</f>
-        <v>611.76470588235293</v>
+        <v>642.35294117647061</v>
       </c>
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
       <c r="O87" s="5"/>
       <c r="P87" s="5"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -5526,14 +5521,14 @@
       </c>
       <c r="L88" s="8">
         <f>LOOKUP(K88,embodied_original!$C$8:$H$8,embodied_original!$C$10:$H$10)</f>
-        <v>352.94117647058823</v>
+        <v>370.58823529411762</v>
       </c>
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
       <c r="O88" s="5"/>
       <c r="P88" s="5"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -5551,14 +5546,14 @@
       </c>
       <c r="L89" s="8">
         <f>LOOKUP(K89,embodied_original!$C$8:$H$8,embodied_original!$C$10:$H$10)</f>
-        <v>470.58823529411762</v>
+        <v>494.11764705882354</v>
       </c>
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
       <c r="O89" s="5"/>
       <c r="P89" s="5"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -5576,14 +5571,14 @@
       </c>
       <c r="L90" s="8">
         <f>LOOKUP(K90,embodied_original!$C$8:$H$8,embodied_original!$C$10:$H$10)</f>
-        <v>611.76470588235293</v>
+        <v>642.35294117647061</v>
       </c>
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
       <c r="O90" s="5"/>
       <c r="P90" s="5"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -5602,14 +5597,14 @@
       </c>
       <c r="L91" s="8">
         <f>LOOKUP(K91,embodied_original!$C$11:$H$11,embodied_original!$C$13:$H$13)</f>
-        <v>470.58823529411762</v>
+        <v>494.11764705882354</v>
       </c>
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
       <c r="O91" s="5"/>
       <c r="P91" s="5"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -5627,14 +5622,14 @@
       </c>
       <c r="L92" s="8">
         <f>LOOKUP(K92,embodied_original!$C$11:$H$11,embodied_original!$C$13:$H$13)</f>
-        <v>529.41176470588232</v>
+        <v>555.88235294117646</v>
       </c>
       <c r="M92" s="5"/>
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
       <c r="P92" s="5"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -5652,14 +5647,14 @@
       </c>
       <c r="L93" s="8">
         <f>LOOKUP(K93,embodied_original!$C$11:$H$11,embodied_original!$C$13:$H$13)</f>
-        <v>588.23529411764707</v>
+        <v>617.64705882352939</v>
       </c>
       <c r="M93" s="5"/>
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
       <c r="P93" s="5"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -5677,14 +5672,14 @@
       </c>
       <c r="L94" s="8">
         <f>LOOKUP(K94,embodied_original!$C$11:$H$11,embodied_original!$C$13:$H$13)</f>
-        <v>617.64705882352939</v>
+        <v>648.52941176470586</v>
       </c>
       <c r="M94" s="5"/>
       <c r="N94" s="5"/>
       <c r="O94" s="5"/>
       <c r="P94" s="5"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -5702,14 +5697,14 @@
       </c>
       <c r="L95" s="8">
         <f>LOOKUP(K95,embodied_original!$C$11:$H$11,embodied_original!$C$13:$H$13)</f>
-        <v>764.70588235294122</v>
+        <v>802.94117647058829</v>
       </c>
       <c r="M95" s="5"/>
       <c r="N95" s="5"/>
       <c r="O95" s="5"/>
       <c r="P95" s="5"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -5727,14 +5722,14 @@
       </c>
       <c r="L96" s="8">
         <f>LOOKUP(K96,embodied_original!$C$11:$H$11,embodied_original!$C$13:$H$13)</f>
-        <v>823.52941176470586</v>
+        <v>864.70588235294122</v>
       </c>
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
       <c r="O96" s="5"/>
       <c r="P96" s="5"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -5752,14 +5747,14 @@
       </c>
       <c r="L97" s="8">
         <f>LOOKUP(K97,embodied_original!$C$11:$H$11,embodied_original!$C$13:$H$13)</f>
-        <v>529.41176470588232</v>
+        <v>555.88235294117646</v>
       </c>
       <c r="M97" s="5"/>
       <c r="N97" s="5"/>
       <c r="O97" s="5"/>
       <c r="P97" s="5"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -5777,14 +5772,14 @@
       </c>
       <c r="L98" s="8">
         <f>LOOKUP(K98,embodied_original!$C$11:$H$11,embodied_original!$C$13:$H$13)</f>
-        <v>617.64705882352939</v>
+        <v>648.52941176470586</v>
       </c>
       <c r="M98" s="5"/>
       <c r="N98" s="5"/>
       <c r="O98" s="5"/>
       <c r="P98" s="5"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -5802,14 +5797,14 @@
       </c>
       <c r="L99" s="8">
         <f>LOOKUP(K99,embodied_original!$C$11:$H$11,embodied_original!$C$13:$H$13)</f>
-        <v>823.52941176470586</v>
+        <v>864.70588235294122</v>
       </c>
       <c r="M99" s="5"/>
       <c r="N99" s="5"/>
       <c r="O99" s="5"/>
       <c r="P99" s="5"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
       <c r="B100" s="5" t="str">
         <f>CONCATENATE(C100, "-", "Nom")</f>
@@ -5848,11 +5843,11 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K100,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J100,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B100&amp;"|"&amp;E100,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>2534.8823529411766</v>
+        <v>2661.6264705882354</v>
       </c>
       <c r="M100" s="8">
         <f>LOOKUP(J100,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N100" s="8" cm="1">
         <f t="array" ref="N100">_xlfn.SWITCH(K100,200,0,LOOKUP(K100,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
@@ -5862,14 +5857,14 @@
         <f t="array" ref="O100">_xlfn.XLOOKUP(B100&amp;"|"&amp;E100,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1025</v>
+        <v>1076.25</v>
       </c>
       <c r="P100" s="8">
         <f>SUM(M100:O100)</f>
-        <v>2534.8823529411766</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2661.6264705882354</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="5"/>
       <c r="B101" s="5" t="str">
         <f t="shared" ref="B101:B147" si="6">CONCATENATE(C101, "-", "Nom")</f>
@@ -5908,11 +5903,11 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K101,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J101,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B101&amp;"|"&amp;E101,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>2972.5294117647059</v>
+        <v>3121.1558823529413</v>
       </c>
       <c r="M101" s="8">
         <f>LOOKUP(J101,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1947.5294117647059</v>
+        <v>2044.9058823529413</v>
       </c>
       <c r="N101" s="8" cm="1">
         <f t="array" ref="N101">_xlfn.SWITCH(K101,200,0,LOOKUP(K101,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
@@ -5922,14 +5917,14 @@
         <f t="array" ref="O101">_xlfn.XLOOKUP(B101&amp;"|"&amp;E101,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1025</v>
+        <v>1076.25</v>
       </c>
       <c r="P101" s="8">
         <f t="shared" ref="P101:P147" si="8">SUM(M101:O101)</f>
-        <v>2972.5294117647059</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3121.1558823529413</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
       <c r="B102" s="5" t="str">
         <f t="shared" si="6"/>
@@ -5968,11 +5963,11 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K102,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J102,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B102&amp;"|"&amp;E102,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3154.8823529411766</v>
+        <v>3312.6264705882354</v>
       </c>
       <c r="M102" s="8">
         <f>LOOKUP(J102,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>2129.8823529411766</v>
+        <v>2236.3764705882354</v>
       </c>
       <c r="N102" s="8" cm="1">
         <f t="array" ref="N102">_xlfn.SWITCH(K102,200,0,LOOKUP(K102,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
@@ -5982,14 +5977,14 @@
         <f t="array" ref="O102">_xlfn.XLOOKUP(B102&amp;"|"&amp;E102,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1025</v>
+        <v>1076.25</v>
       </c>
       <c r="P102" s="8">
         <f t="shared" si="8"/>
-        <v>3154.8823529411766</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3312.6264705882354</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="5"/>
       <c r="B103" s="5" t="str">
         <f t="shared" si="6"/>
@@ -6028,28 +6023,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K103,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J103,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B103&amp;"|"&amp;E103,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>2943.9732620320856</v>
+        <v>3091.1719251336899</v>
       </c>
       <c r="M103" s="8">
         <f>LOOKUP(J103,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N103" s="8" cm="1">
         <f t="array" ref="N103">_xlfn.SWITCH(K103,200,0,LOOKUP(K103,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>409.09090909090907</v>
+        <v>429.54545454545456</v>
       </c>
       <c r="O103" s="5" cm="1">
         <f t="array" ref="O103">_xlfn.XLOOKUP(B103&amp;"|"&amp;E103,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1025</v>
+        <v>1076.25</v>
       </c>
       <c r="P103" s="8">
         <f t="shared" si="8"/>
-        <v>2943.9732620320856</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3091.1719251336899</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="5"/>
       <c r="B104" s="5" t="str">
         <f t="shared" si="6"/>
@@ -6088,28 +6083,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K104,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J104,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B104&amp;"|"&amp;E104,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>2943.9732620320856</v>
+        <v>3091.1719251336899</v>
       </c>
       <c r="M104" s="8">
         <f>LOOKUP(J104,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N104" s="8" cm="1">
         <f t="array" ref="N104">_xlfn.SWITCH(K104,200,0,LOOKUP(K104,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>409.09090909090907</v>
+        <v>429.54545454545456</v>
       </c>
       <c r="O104" s="5" cm="1">
         <f t="array" ref="O104">_xlfn.XLOOKUP(B104&amp;"|"&amp;E104,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1025</v>
+        <v>1076.25</v>
       </c>
       <c r="P104" s="8">
         <f t="shared" si="8"/>
-        <v>2943.9732620320856</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3091.1719251336899</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="5"/>
       <c r="B105" s="5" t="str">
         <f t="shared" si="6"/>
@@ -6148,28 +6143,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K105,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J105,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B105&amp;"|"&amp;E105,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>2943.9732620320856</v>
+        <v>3091.1719251336899</v>
       </c>
       <c r="M105" s="8">
         <f>LOOKUP(J105,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N105" s="8" cm="1">
         <f t="array" ref="N105">_xlfn.SWITCH(K105,200,0,LOOKUP(K105,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>409.09090909090907</v>
+        <v>429.54545454545456</v>
       </c>
       <c r="O105" s="5" cm="1">
         <f t="array" ref="O105">_xlfn.XLOOKUP(B105&amp;"|"&amp;E105,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1025</v>
+        <v>1076.25</v>
       </c>
       <c r="P105" s="8">
         <f t="shared" si="8"/>
-        <v>2943.9732620320856</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3091.1719251336899</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="5"/>
       <c r="B106" s="5" t="str">
         <f t="shared" si="6"/>
@@ -6208,28 +6203,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K106,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J106,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B106&amp;"|"&amp;E106,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3563.9732620320856</v>
+        <v>3742.1719251336899</v>
       </c>
       <c r="M106" s="8">
         <f>LOOKUP(J106,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>2129.8823529411766</v>
+        <v>2236.3764705882354</v>
       </c>
       <c r="N106" s="8" cm="1">
         <f t="array" ref="N106">_xlfn.SWITCH(K106,200,0,LOOKUP(K106,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>409.09090909090907</v>
+        <v>429.54545454545456</v>
       </c>
       <c r="O106" s="5" cm="1">
         <f t="array" ref="O106">_xlfn.XLOOKUP(B106&amp;"|"&amp;E106,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1025</v>
+        <v>1076.25</v>
       </c>
       <c r="P106" s="8">
         <f t="shared" si="8"/>
-        <v>3563.9732620320856</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3742.1719251336899</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
       <c r="B107" s="5" t="str">
         <f t="shared" si="6"/>
@@ -6268,28 +6263,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K107,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J107,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B107&amp;"|"&amp;E107,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3625.7914438502676</v>
+        <v>3807.0810160427809</v>
       </c>
       <c r="M107" s="8">
         <f>LOOKUP(J107,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N107" s="8" cm="1">
         <f t="array" ref="N107">_xlfn.SWITCH(K107,200,0,LOOKUP(K107,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>1090.909090909091</v>
+        <v>1145.4545454545455</v>
       </c>
       <c r="O107" s="5" cm="1">
         <f t="array" ref="O107">_xlfn.XLOOKUP(B107&amp;"|"&amp;E107,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1025</v>
+        <v>1076.25</v>
       </c>
       <c r="P107" s="8">
         <f t="shared" ref="P107" si="9">SUM(M107:O107)</f>
-        <v>3625.7914438502676</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3807.0810160427809</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" s="5"/>
       <c r="B108" s="5" t="str">
         <f t="shared" si="6"/>
@@ -6328,28 +6323,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K108,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J108,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B108&amp;"|"&amp;E108,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3625.7914438502676</v>
+        <v>3807.0810160427809</v>
       </c>
       <c r="M108" s="8">
         <f>LOOKUP(J108,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N108" s="8" cm="1">
         <f t="array" ref="N108">_xlfn.SWITCH(K108,200,0,LOOKUP(K108,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>1090.909090909091</v>
+        <v>1145.4545454545455</v>
       </c>
       <c r="O108" s="5" cm="1">
         <f t="array" ref="O108">_xlfn.XLOOKUP(B108&amp;"|"&amp;E108,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1025</v>
+        <v>1076.25</v>
       </c>
       <c r="P108" s="8">
         <f t="shared" si="8"/>
-        <v>3625.7914438502676</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3807.0810160427809</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" s="5"/>
       <c r="B109" s="5" t="str">
         <f t="shared" si="6"/>
@@ -6388,28 +6383,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K109,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J109,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B109&amp;"|"&amp;E109,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3625.7914438502676</v>
+        <v>3807.0810160427809</v>
       </c>
       <c r="M109" s="8">
         <f>LOOKUP(J109,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N109" s="8" cm="1">
         <f t="array" ref="N109">_xlfn.SWITCH(K109,200,0,LOOKUP(K109,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>1090.909090909091</v>
+        <v>1145.4545454545455</v>
       </c>
       <c r="O109" s="5" cm="1">
         <f t="array" ref="O109">_xlfn.XLOOKUP(B109&amp;"|"&amp;E109,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1025</v>
+        <v>1076.25</v>
       </c>
       <c r="P109" s="8">
         <f t="shared" si="8"/>
-        <v>3625.7914438502676</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3807.0810160427809</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" s="5"/>
       <c r="B110" s="5" t="str">
         <f t="shared" si="6"/>
@@ -6448,28 +6443,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K110,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J110,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B110&amp;"|"&amp;E110,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>4063.4385026737968</v>
+        <v>4266.6104278074872</v>
       </c>
       <c r="M110" s="8">
         <f>LOOKUP(J110,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1947.5294117647059</v>
+        <v>2044.9058823529413</v>
       </c>
       <c r="N110" s="8" cm="1">
         <f t="array" ref="N110">_xlfn.SWITCH(K110,200,0,LOOKUP(K110,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>1090.909090909091</v>
+        <v>1145.4545454545455</v>
       </c>
       <c r="O110" s="5" cm="1">
         <f t="array" ref="O110">_xlfn.XLOOKUP(B110&amp;"|"&amp;E110,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1025</v>
+        <v>1076.25</v>
       </c>
       <c r="P110" s="8">
         <f t="shared" si="8"/>
-        <v>4063.4385026737968</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4266.6104278074872</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" s="5"/>
       <c r="B111" s="5" t="str">
         <f t="shared" si="6"/>
@@ -6508,28 +6503,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K111,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J111,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B111&amp;"|"&amp;E111,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>4245.7914438502676</v>
+        <v>4458.0810160427809</v>
       </c>
       <c r="M111" s="8">
         <f>LOOKUP(J111,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>2129.8823529411766</v>
+        <v>2236.3764705882354</v>
       </c>
       <c r="N111" s="8" cm="1">
         <f t="array" ref="N111">_xlfn.SWITCH(K111,200,0,LOOKUP(K111,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>1090.909090909091</v>
+        <v>1145.4545454545455</v>
       </c>
       <c r="O111" s="5" cm="1">
         <f t="array" ref="O111">_xlfn.XLOOKUP(B111&amp;"|"&amp;E111,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1025</v>
+        <v>1076.25</v>
       </c>
       <c r="P111" s="8">
         <f t="shared" si="8"/>
-        <v>4245.7914438502676</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4458.0810160427809</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
       <c r="B112" s="5" t="str">
         <f t="shared" si="6"/>
@@ -6568,11 +6563,11 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K112,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J112,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B112&amp;"|"&amp;E112,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3084.8823529411766</v>
+        <v>3239.1264705882354</v>
       </c>
       <c r="M112" s="8">
         <f>LOOKUP(J112,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N112" s="8" cm="1">
         <f t="array" ref="N112">_xlfn.SWITCH(K112,200,0,LOOKUP(K112,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
@@ -6582,14 +6577,14 @@
         <f t="array" ref="O112">_xlfn.XLOOKUP(B112&amp;"|"&amp;E112,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1575</v>
+        <v>1653.75</v>
       </c>
       <c r="P112" s="8">
         <f t="shared" si="8"/>
-        <v>3084.8823529411766</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3239.1264705882354</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="5"/>
       <c r="B113" s="5" t="str">
         <f t="shared" si="6"/>
@@ -6628,11 +6623,11 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K113,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J113,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B113&amp;"|"&amp;E113,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3522.5294117647059</v>
+        <v>3698.6558823529413</v>
       </c>
       <c r="M113" s="8">
         <f>LOOKUP(J113,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1947.5294117647059</v>
+        <v>2044.9058823529413</v>
       </c>
       <c r="N113" s="8" cm="1">
         <f t="array" ref="N113">_xlfn.SWITCH(K113,200,0,LOOKUP(K113,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
@@ -6642,14 +6637,14 @@
         <f t="array" ref="O113">_xlfn.XLOOKUP(B113&amp;"|"&amp;E113,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1575</v>
+        <v>1653.75</v>
       </c>
       <c r="P113" s="8">
         <f t="shared" si="8"/>
-        <v>3522.5294117647059</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3698.6558823529413</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" s="5"/>
       <c r="B114" s="5" t="str">
         <f t="shared" si="6"/>
@@ -6688,11 +6683,11 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K114,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J114,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B114&amp;"|"&amp;E114,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3704.8823529411766</v>
+        <v>3890.1264705882354</v>
       </c>
       <c r="M114" s="8">
         <f>LOOKUP(J114,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>2129.8823529411766</v>
+        <v>2236.3764705882354</v>
       </c>
       <c r="N114" s="8" cm="1">
         <f t="array" ref="N114">_xlfn.SWITCH(K114,200,0,LOOKUP(K114,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
@@ -6702,14 +6697,14 @@
         <f t="array" ref="O114">_xlfn.XLOOKUP(B114&amp;"|"&amp;E114,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1575</v>
+        <v>1653.75</v>
       </c>
       <c r="P114" s="8">
         <f t="shared" si="8"/>
-        <v>3704.8823529411766</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3890.1264705882354</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" s="5"/>
       <c r="B115" s="5" t="str">
         <f t="shared" si="6"/>
@@ -6748,28 +6743,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K115,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J115,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B115&amp;"|"&amp;E115,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3493.9732620320856</v>
+        <v>3668.6719251336899</v>
       </c>
       <c r="M115" s="8">
         <f>LOOKUP(J115,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N115" s="8" cm="1">
         <f t="array" ref="N115">_xlfn.SWITCH(K115,200,0,LOOKUP(K115,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>409.09090909090907</v>
+        <v>429.54545454545456</v>
       </c>
       <c r="O115" s="5" cm="1">
         <f t="array" ref="O115">_xlfn.XLOOKUP(B115&amp;"|"&amp;E115,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1575</v>
+        <v>1653.75</v>
       </c>
       <c r="P115" s="8">
         <f t="shared" ref="P115" si="10">SUM(M115:O115)</f>
-        <v>3493.9732620320856</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3668.6719251336899</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" s="5"/>
       <c r="B116" s="5" t="str">
         <f t="shared" si="6"/>
@@ -6808,28 +6803,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K116,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J116,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B116&amp;"|"&amp;E116,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3493.9732620320856</v>
+        <v>3668.6719251336899</v>
       </c>
       <c r="M116" s="8">
         <f>LOOKUP(J116,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N116" s="8" cm="1">
         <f t="array" ref="N116">_xlfn.SWITCH(K116,200,0,LOOKUP(K116,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>409.09090909090907</v>
+        <v>429.54545454545456</v>
       </c>
       <c r="O116" s="5" cm="1">
         <f t="array" ref="O116">_xlfn.XLOOKUP(B116&amp;"|"&amp;E116,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1575</v>
+        <v>1653.75</v>
       </c>
       <c r="P116" s="8">
         <f t="shared" si="8"/>
-        <v>3493.9732620320856</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3668.6719251336899</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" s="5"/>
       <c r="B117" s="5" t="str">
         <f t="shared" si="6"/>
@@ -6868,28 +6863,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K117,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J117,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B117&amp;"|"&amp;E117,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3493.9732620320856</v>
+        <v>3668.6719251336899</v>
       </c>
       <c r="M117" s="8">
         <f>LOOKUP(J117,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N117" s="8" cm="1">
         <f t="array" ref="N117">_xlfn.SWITCH(K117,200,0,LOOKUP(K117,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>409.09090909090907</v>
+        <v>429.54545454545456</v>
       </c>
       <c r="O117" s="5" cm="1">
         <f t="array" ref="O117">_xlfn.XLOOKUP(B117&amp;"|"&amp;E117,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1575</v>
+        <v>1653.75</v>
       </c>
       <c r="P117" s="8">
         <f t="shared" si="8"/>
-        <v>3493.9732620320856</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3668.6719251336899</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" s="5"/>
       <c r="B118" s="5" t="str">
         <f t="shared" si="6"/>
@@ -6928,28 +6923,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K118,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J118,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B118&amp;"|"&amp;E118,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>4113.9732620320856</v>
+        <v>4319.6719251336899</v>
       </c>
       <c r="M118" s="8">
         <f>LOOKUP(J118,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>2129.8823529411766</v>
+        <v>2236.3764705882354</v>
       </c>
       <c r="N118" s="8" cm="1">
         <f t="array" ref="N118">_xlfn.SWITCH(K118,200,0,LOOKUP(K118,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>409.09090909090907</v>
+        <v>429.54545454545456</v>
       </c>
       <c r="O118" s="5" cm="1">
         <f t="array" ref="O118">_xlfn.XLOOKUP(B118&amp;"|"&amp;E118,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1575</v>
+        <v>1653.75</v>
       </c>
       <c r="P118" s="8">
         <f t="shared" si="8"/>
-        <v>4113.9732620320856</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4319.6719251336899</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="5"/>
       <c r="B119" s="5" t="str">
         <f t="shared" si="6"/>
@@ -6988,28 +6983,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K119,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J119,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B119&amp;"|"&amp;E119,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>4175.7914438502676</v>
+        <v>4384.5810160427809</v>
       </c>
       <c r="M119" s="8">
         <f>LOOKUP(J119,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N119" s="8" cm="1">
         <f t="array" ref="N119">_xlfn.SWITCH(K119,200,0,LOOKUP(K119,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>1090.909090909091</v>
+        <v>1145.4545454545455</v>
       </c>
       <c r="O119" s="5" cm="1">
         <f t="array" ref="O119">_xlfn.XLOOKUP(B119&amp;"|"&amp;E119,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1575</v>
+        <v>1653.75</v>
       </c>
       <c r="P119" s="8">
         <f t="shared" ref="P119" si="11">SUM(M119:O119)</f>
-        <v>4175.7914438502676</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4384.5810160427809</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" s="5"/>
       <c r="B120" s="5" t="str">
         <f t="shared" si="6"/>
@@ -7048,28 +7043,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K120,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J120,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B120&amp;"|"&amp;E120,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>4175.7914438502676</v>
+        <v>4384.5810160427809</v>
       </c>
       <c r="M120" s="8">
         <f>LOOKUP(J120,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N120" s="8" cm="1">
         <f t="array" ref="N120">_xlfn.SWITCH(K120,200,0,LOOKUP(K120,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>1090.909090909091</v>
+        <v>1145.4545454545455</v>
       </c>
       <c r="O120" s="5" cm="1">
         <f t="array" ref="O120">_xlfn.XLOOKUP(B120&amp;"|"&amp;E120,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1575</v>
+        <v>1653.75</v>
       </c>
       <c r="P120" s="8">
         <f t="shared" si="8"/>
-        <v>4175.7914438502676</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4384.5810160427809</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" s="5"/>
       <c r="B121" s="5" t="str">
         <f t="shared" si="6"/>
@@ -7108,28 +7103,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K121,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J121,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B121&amp;"|"&amp;E121,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>4175.7914438502676</v>
+        <v>4384.5810160427809</v>
       </c>
       <c r="M121" s="8">
         <f>LOOKUP(J121,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N121" s="8" cm="1">
         <f t="array" ref="N121">_xlfn.SWITCH(K121,200,0,LOOKUP(K121,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>1090.909090909091</v>
+        <v>1145.4545454545455</v>
       </c>
       <c r="O121" s="5" cm="1">
         <f t="array" ref="O121">_xlfn.XLOOKUP(B121&amp;"|"&amp;E121,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1575</v>
+        <v>1653.75</v>
       </c>
       <c r="P121" s="8">
         <f t="shared" si="8"/>
-        <v>4175.7914438502676</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4384.5810160427809</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="5"/>
       <c r="B122" s="5" t="str">
         <f t="shared" si="6"/>
@@ -7168,28 +7163,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K122,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J122,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B122&amp;"|"&amp;E122,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>4613.4385026737964</v>
+        <v>4844.1104278074872</v>
       </c>
       <c r="M122" s="8">
         <f>LOOKUP(J122,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1947.5294117647059</v>
+        <v>2044.9058823529413</v>
       </c>
       <c r="N122" s="8" cm="1">
         <f t="array" ref="N122">_xlfn.SWITCH(K122,200,0,LOOKUP(K122,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>1090.909090909091</v>
+        <v>1145.4545454545455</v>
       </c>
       <c r="O122" s="5" cm="1">
         <f t="array" ref="O122">_xlfn.XLOOKUP(B122&amp;"|"&amp;E122,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1575</v>
+        <v>1653.75</v>
       </c>
       <c r="P122" s="8">
         <f t="shared" si="8"/>
-        <v>4613.4385026737964</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4844.1104278074872</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" s="5"/>
       <c r="B123" s="5" t="str">
         <f t="shared" si="6"/>
@@ -7228,28 +7223,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K123,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J123,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B123&amp;"|"&amp;E123,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>4795.7914438502676</v>
+        <v>5035.5810160427809</v>
       </c>
       <c r="M123" s="8">
         <f>LOOKUP(J123,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>2129.8823529411766</v>
+        <v>2236.3764705882354</v>
       </c>
       <c r="N123" s="8" cm="1">
         <f t="array" ref="N123">_xlfn.SWITCH(K123,200,0,LOOKUP(K123,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>1090.909090909091</v>
+        <v>1145.4545454545455</v>
       </c>
       <c r="O123" s="5" cm="1">
         <f t="array" ref="O123">_xlfn.XLOOKUP(B123&amp;"|"&amp;E123,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1575</v>
+        <v>1653.75</v>
       </c>
       <c r="P123" s="8">
         <f t="shared" si="8"/>
-        <v>4795.7914438502676</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+        <v>5035.5810160427809</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" s="5"/>
       <c r="B124" s="5" t="str">
         <f t="shared" si="6"/>
@@ -7288,11 +7283,11 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K124,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J124,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B124&amp;"|"&amp;E124,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>2703.6323529411766</v>
+        <v>2838.8139705882354</v>
       </c>
       <c r="M124" s="8">
         <f>LOOKUP(J124,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N124" s="8" cm="1">
         <f t="array" ref="N124">_xlfn.SWITCH(K124,200,0,LOOKUP(K124,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
@@ -7302,14 +7297,14 @@
         <f t="array" ref="O124">_xlfn.XLOOKUP(B124&amp;"|"&amp;E124,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1193.75</v>
+        <v>1253.4375</v>
       </c>
       <c r="P124" s="8">
         <f t="shared" si="8"/>
-        <v>2703.6323529411766</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2838.8139705882354</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
       <c r="B125" s="5" t="str">
         <f t="shared" si="6"/>
@@ -7348,11 +7343,11 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K125,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J125,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B125&amp;"|"&amp;E125,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3141.2794117647059</v>
+        <v>3298.3433823529413</v>
       </c>
       <c r="M125" s="8">
         <f>LOOKUP(J125,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1947.5294117647059</v>
+        <v>2044.9058823529413</v>
       </c>
       <c r="N125" s="8" cm="1">
         <f t="array" ref="N125">_xlfn.SWITCH(K125,200,0,LOOKUP(K125,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
@@ -7362,14 +7357,14 @@
         <f t="array" ref="O125">_xlfn.XLOOKUP(B125&amp;"|"&amp;E125,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1193.75</v>
+        <v>1253.4375</v>
       </c>
       <c r="P125" s="8">
         <f t="shared" si="8"/>
-        <v>3141.2794117647059</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3298.3433823529413</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
       <c r="B126" s="5" t="str">
         <f t="shared" si="6"/>
@@ -7408,11 +7403,11 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K126,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J126,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B126&amp;"|"&amp;E126,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3323.6323529411766</v>
+        <v>3489.8139705882354</v>
       </c>
       <c r="M126" s="8">
         <f>LOOKUP(J126,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>2129.8823529411766</v>
+        <v>2236.3764705882354</v>
       </c>
       <c r="N126" s="8" cm="1">
         <f t="array" ref="N126">_xlfn.SWITCH(K126,200,0,LOOKUP(K126,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
@@ -7422,14 +7417,14 @@
         <f t="array" ref="O126">_xlfn.XLOOKUP(B126&amp;"|"&amp;E126,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1193.75</v>
+        <v>1253.4375</v>
       </c>
       <c r="P126" s="8">
         <f t="shared" si="8"/>
-        <v>3323.6323529411766</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3489.8139705882354</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
       <c r="B127" s="5" t="str">
         <f t="shared" ref="B127" si="12">CONCATENATE(C127, "-", "Nom")</f>
@@ -7468,28 +7463,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K127,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J127,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B127&amp;"|"&amp;E127,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3112.7232620320856</v>
+        <v>3268.3594251336899</v>
       </c>
       <c r="M127" s="8">
         <f>LOOKUP(J127,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N127" s="8" cm="1">
         <f t="array" ref="N127">_xlfn.SWITCH(K127,200,0,LOOKUP(K127,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>409.09090909090907</v>
+        <v>429.54545454545456</v>
       </c>
       <c r="O127" s="5" cm="1">
         <f t="array" ref="O127">_xlfn.XLOOKUP(B127&amp;"|"&amp;E127,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1193.75</v>
+        <v>1253.4375</v>
       </c>
       <c r="P127" s="8">
         <f t="shared" si="8"/>
-        <v>3112.7232620320856</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3268.3594251336899</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" s="5"/>
       <c r="B128" s="5" t="str">
         <f t="shared" si="6"/>
@@ -7528,28 +7523,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K128,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J128,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B128&amp;"|"&amp;E128,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3112.7232620320856</v>
+        <v>3268.3594251336899</v>
       </c>
       <c r="M128" s="8">
         <f>LOOKUP(J128,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N128" s="8" cm="1">
         <f t="array" ref="N128">_xlfn.SWITCH(K128,200,0,LOOKUP(K128,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>409.09090909090907</v>
+        <v>429.54545454545456</v>
       </c>
       <c r="O128" s="5" cm="1">
         <f t="array" ref="O128">_xlfn.XLOOKUP(B128&amp;"|"&amp;E128,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1193.75</v>
+        <v>1253.4375</v>
       </c>
       <c r="P128" s="8">
         <f t="shared" si="8"/>
-        <v>3112.7232620320856</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3268.3594251336899</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
       <c r="B129" s="5" t="str">
         <f t="shared" si="6"/>
@@ -7588,28 +7583,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K129,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J129,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B129&amp;"|"&amp;E129,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3112.7232620320856</v>
+        <v>3268.3594251336899</v>
       </c>
       <c r="M129" s="8">
         <f>LOOKUP(J129,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N129" s="8" cm="1">
         <f t="array" ref="N129">_xlfn.SWITCH(K129,200,0,LOOKUP(K129,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>409.09090909090907</v>
+        <v>429.54545454545456</v>
       </c>
       <c r="O129" s="5" cm="1">
         <f t="array" ref="O129">_xlfn.XLOOKUP(B129&amp;"|"&amp;E129,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1193.75</v>
+        <v>1253.4375</v>
       </c>
       <c r="P129" s="8">
         <f t="shared" si="8"/>
-        <v>3112.7232620320856</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3268.3594251336899</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
       <c r="B130" s="5" t="str">
         <f t="shared" si="6"/>
@@ -7648,28 +7643,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K130,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J130,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B130&amp;"|"&amp;E130,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3732.7232620320856</v>
+        <v>3919.3594251336899</v>
       </c>
       <c r="M130" s="8">
         <f>LOOKUP(J130,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>2129.8823529411766</v>
+        <v>2236.3764705882354</v>
       </c>
       <c r="N130" s="8" cm="1">
         <f t="array" ref="N130">_xlfn.SWITCH(K130,200,0,LOOKUP(K130,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>409.09090909090907</v>
+        <v>429.54545454545456</v>
       </c>
       <c r="O130" s="5" cm="1">
         <f t="array" ref="O130">_xlfn.XLOOKUP(B130&amp;"|"&amp;E130,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1193.75</v>
+        <v>1253.4375</v>
       </c>
       <c r="P130" s="8">
         <f t="shared" si="8"/>
-        <v>3732.7232620320856</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3919.3594251336899</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" s="5"/>
       <c r="B131" s="5" t="str">
         <f t="shared" ref="B131" si="14">CONCATENATE(C131, "-", "Nom")</f>
@@ -7708,28 +7703,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K131,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J131,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B131&amp;"|"&amp;E131,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3794.5414438502676</v>
+        <v>3984.2685160427809</v>
       </c>
       <c r="M131" s="8">
         <f>LOOKUP(J131,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N131" s="8" cm="1">
         <f t="array" ref="N131">_xlfn.SWITCH(K131,200,0,LOOKUP(K131,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>1090.909090909091</v>
+        <v>1145.4545454545455</v>
       </c>
       <c r="O131" s="5" cm="1">
         <f t="array" ref="O131">_xlfn.XLOOKUP(B131&amp;"|"&amp;E131,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1193.75</v>
+        <v>1253.4375</v>
       </c>
       <c r="P131" s="8">
         <f t="shared" si="8"/>
-        <v>3794.5414438502676</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3984.2685160427809</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" s="5"/>
       <c r="B132" s="5" t="str">
         <f t="shared" si="6"/>
@@ -7768,28 +7763,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K132,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J132,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B132&amp;"|"&amp;E132,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3794.5414438502676</v>
+        <v>3984.2685160427809</v>
       </c>
       <c r="M132" s="8">
         <f>LOOKUP(J132,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N132" s="8" cm="1">
         <f t="array" ref="N132">_xlfn.SWITCH(K132,200,0,LOOKUP(K132,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>1090.909090909091</v>
+        <v>1145.4545454545455</v>
       </c>
       <c r="O132" s="5" cm="1">
         <f t="array" ref="O132">_xlfn.XLOOKUP(B132&amp;"|"&amp;E132,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1193.75</v>
+        <v>1253.4375</v>
       </c>
       <c r="P132" s="8">
         <f t="shared" si="8"/>
-        <v>3794.5414438502676</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3984.2685160427809</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="5"/>
       <c r="B133" s="5" t="str">
         <f t="shared" si="6"/>
@@ -7828,28 +7823,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K133,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J133,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B133&amp;"|"&amp;E133,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3794.5414438502676</v>
+        <v>3984.2685160427809</v>
       </c>
       <c r="M133" s="8">
         <f>LOOKUP(J133,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N133" s="8" cm="1">
         <f t="array" ref="N133">_xlfn.SWITCH(K133,200,0,LOOKUP(K133,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>1090.909090909091</v>
+        <v>1145.4545454545455</v>
       </c>
       <c r="O133" s="5" cm="1">
         <f t="array" ref="O133">_xlfn.XLOOKUP(B133&amp;"|"&amp;E133,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1193.75</v>
+        <v>1253.4375</v>
       </c>
       <c r="P133" s="8">
         <f t="shared" si="8"/>
-        <v>3794.5414438502676</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3984.2685160427809</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" s="5"/>
       <c r="B134" s="5" t="str">
         <f t="shared" si="6"/>
@@ -7888,28 +7883,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K134,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J134,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B134&amp;"|"&amp;E134,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>4232.1885026737964</v>
+        <v>4443.7979278074872</v>
       </c>
       <c r="M134" s="8">
         <f>LOOKUP(J134,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1947.5294117647059</v>
+        <v>2044.9058823529413</v>
       </c>
       <c r="N134" s="8" cm="1">
         <f t="array" ref="N134">_xlfn.SWITCH(K134,200,0,LOOKUP(K134,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>1090.909090909091</v>
+        <v>1145.4545454545455</v>
       </c>
       <c r="O134" s="5" cm="1">
         <f t="array" ref="O134">_xlfn.XLOOKUP(B134&amp;"|"&amp;E134,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1193.75</v>
+        <v>1253.4375</v>
       </c>
       <c r="P134" s="8">
         <f t="shared" si="8"/>
-        <v>4232.1885026737964</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4443.7979278074872</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
       <c r="B135" s="5" t="str">
         <f t="shared" si="6"/>
@@ -7948,28 +7943,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K135,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J135,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B135&amp;"|"&amp;E135,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>4414.5414438502676</v>
+        <v>4635.2685160427809</v>
       </c>
       <c r="M135" s="8">
         <f>LOOKUP(J135,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>2129.8823529411766</v>
+        <v>2236.3764705882354</v>
       </c>
       <c r="N135" s="8" cm="1">
         <f t="array" ref="N135">_xlfn.SWITCH(K135,200,0,LOOKUP(K135,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>1090.909090909091</v>
+        <v>1145.4545454545455</v>
       </c>
       <c r="O135" s="5" cm="1">
         <f t="array" ref="O135">_xlfn.XLOOKUP(B135&amp;"|"&amp;E135,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1193.75</v>
+        <v>1253.4375</v>
       </c>
       <c r="P135" s="8">
         <f t="shared" si="8"/>
-        <v>4414.5414438502676</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4635.2685160427809</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" s="5"/>
       <c r="B136" s="5" t="str">
         <f t="shared" si="6"/>
@@ -8008,11 +8003,11 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K136,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J136,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B136&amp;"|"&amp;E136,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3197.3823529411766</v>
+        <v>3357.2514705882354</v>
       </c>
       <c r="M136" s="8">
         <f>LOOKUP(J136,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N136" s="8" cm="1">
         <f t="array" ref="N136">_xlfn.SWITCH(K136,200,0,LOOKUP(K136,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
@@ -8022,14 +8017,14 @@
         <f t="array" ref="O136">_xlfn.XLOOKUP(B136&amp;"|"&amp;E136,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1687.5</v>
+        <v>1771.875</v>
       </c>
       <c r="P136" s="8">
         <f t="shared" si="8"/>
-        <v>3197.3823529411766</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3357.2514705882354</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" s="5"/>
       <c r="B137" s="5" t="str">
         <f t="shared" si="6"/>
@@ -8068,11 +8063,11 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K137,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J137,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B137&amp;"|"&amp;E137,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3635.0294117647059</v>
+        <v>3816.7808823529413</v>
       </c>
       <c r="M137" s="8">
         <f>LOOKUP(J137,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1947.5294117647059</v>
+        <v>2044.9058823529413</v>
       </c>
       <c r="N137" s="8" cm="1">
         <f t="array" ref="N137">_xlfn.SWITCH(K137,200,0,LOOKUP(K137,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
@@ -8082,14 +8077,14 @@
         <f t="array" ref="O137">_xlfn.XLOOKUP(B137&amp;"|"&amp;E137,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1687.5</v>
+        <v>1771.875</v>
       </c>
       <c r="P137" s="8">
         <f t="shared" si="8"/>
-        <v>3635.0294117647059</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3816.7808823529413</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="5"/>
       <c r="B138" s="5" t="str">
         <f t="shared" si="6"/>
@@ -8128,11 +8123,11 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K138,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J138,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B138&amp;"|"&amp;E138,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3817.3823529411766</v>
+        <v>4008.2514705882354</v>
       </c>
       <c r="M138" s="8">
         <f>LOOKUP(J138,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>2129.8823529411766</v>
+        <v>2236.3764705882354</v>
       </c>
       <c r="N138" s="8" cm="1">
         <f t="array" ref="N138">_xlfn.SWITCH(K138,200,0,LOOKUP(K138,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
@@ -8142,14 +8137,14 @@
         <f t="array" ref="O138">_xlfn.XLOOKUP(B138&amp;"|"&amp;E138,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1687.5</v>
+        <v>1771.875</v>
       </c>
       <c r="P138" s="8">
         <f t="shared" si="8"/>
-        <v>3817.3823529411766</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4008.2514705882354</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" s="5"/>
       <c r="B139" s="5" t="str">
         <f t="shared" ref="B139" si="16">CONCATENATE(C139, "-", "Nom")</f>
@@ -8188,28 +8183,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K139,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J139,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B139&amp;"|"&amp;E139,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3606.4732620320856</v>
+        <v>3786.7969251336899</v>
       </c>
       <c r="M139" s="8">
         <f>LOOKUP(J139,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N139" s="8" cm="1">
         <f t="array" ref="N139">_xlfn.SWITCH(K139,200,0,LOOKUP(K139,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>409.09090909090907</v>
+        <v>429.54545454545456</v>
       </c>
       <c r="O139" s="5" cm="1">
         <f t="array" ref="O139">_xlfn.XLOOKUP(B139&amp;"|"&amp;E139,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1687.5</v>
+        <v>1771.875</v>
       </c>
       <c r="P139" s="8">
         <f t="shared" si="8"/>
-        <v>3606.4732620320856</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3786.7969251336899</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" s="5"/>
       <c r="B140" s="5" t="str">
         <f t="shared" si="6"/>
@@ -8248,28 +8243,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K140,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J140,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B140&amp;"|"&amp;E140,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3606.4732620320856</v>
+        <v>3786.7969251336899</v>
       </c>
       <c r="M140" s="8">
         <f>LOOKUP(J140,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N140" s="8" cm="1">
         <f t="array" ref="N140">_xlfn.SWITCH(K140,200,0,LOOKUP(K140,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>409.09090909090907</v>
+        <v>429.54545454545456</v>
       </c>
       <c r="O140" s="5" cm="1">
         <f t="array" ref="O140">_xlfn.XLOOKUP(B140&amp;"|"&amp;E140,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1687.5</v>
+        <v>1771.875</v>
       </c>
       <c r="P140" s="8">
         <f t="shared" si="8"/>
-        <v>3606.4732620320856</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3786.7969251336899</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141" s="5"/>
       <c r="B141" s="5" t="str">
         <f t="shared" si="6"/>
@@ -8308,28 +8303,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K141,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J141,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B141&amp;"|"&amp;E141,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3606.4732620320856</v>
+        <v>3786.7969251336899</v>
       </c>
       <c r="M141" s="8">
         <f>LOOKUP(J141,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N141" s="8" cm="1">
         <f t="array" ref="N141">_xlfn.SWITCH(K141,200,0,LOOKUP(K141,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>409.09090909090907</v>
+        <v>429.54545454545456</v>
       </c>
       <c r="O141" s="5" cm="1">
         <f t="array" ref="O141">_xlfn.XLOOKUP(B141&amp;"|"&amp;E141,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1687.5</v>
+        <v>1771.875</v>
       </c>
       <c r="P141" s="8">
         <f t="shared" si="8"/>
-        <v>3606.4732620320856</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3786.7969251336899</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
       <c r="B142" s="5" t="str">
         <f t="shared" si="6"/>
@@ -8368,28 +8363,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K142,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J142,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B142&amp;"|"&amp;E142,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>4226.4732620320856</v>
+        <v>4437.7969251336899</v>
       </c>
       <c r="M142" s="8">
         <f>LOOKUP(J142,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>2129.8823529411766</v>
+        <v>2236.3764705882354</v>
       </c>
       <c r="N142" s="8" cm="1">
         <f t="array" ref="N142">_xlfn.SWITCH(K142,200,0,LOOKUP(K142,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>409.09090909090907</v>
+        <v>429.54545454545456</v>
       </c>
       <c r="O142" s="5" cm="1">
         <f t="array" ref="O142">_xlfn.XLOOKUP(B142&amp;"|"&amp;E142,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1687.5</v>
+        <v>1771.875</v>
       </c>
       <c r="P142" s="8">
         <f t="shared" si="8"/>
-        <v>4226.4732620320856</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4437.7969251336899</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
       <c r="B143" s="5" t="str">
         <f t="shared" ref="B143" si="18">CONCATENATE(C143, "-", "Nom")</f>
@@ -8428,28 +8423,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K143,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J143,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B143&amp;"|"&amp;E143,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>4288.2914438502676</v>
+        <v>4502.7060160427809</v>
       </c>
       <c r="M143" s="8">
         <f>LOOKUP(J143,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N143" s="8" cm="1">
         <f t="array" ref="N143">_xlfn.SWITCH(K143,200,0,LOOKUP(K143,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>1090.909090909091</v>
+        <v>1145.4545454545455</v>
       </c>
       <c r="O143" s="5" cm="1">
         <f t="array" ref="O143">_xlfn.XLOOKUP(B143&amp;"|"&amp;E143,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1687.5</v>
+        <v>1771.875</v>
       </c>
       <c r="P143" s="8">
         <f t="shared" si="8"/>
-        <v>4288.2914438502676</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4502.7060160427809</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" s="5"/>
       <c r="B144" s="5" t="str">
         <f t="shared" si="6"/>
@@ -8488,28 +8483,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K144,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J144,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B144&amp;"|"&amp;E144,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>4288.2914438502676</v>
+        <v>4502.7060160427809</v>
       </c>
       <c r="M144" s="8">
         <f>LOOKUP(J144,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N144" s="8" cm="1">
         <f t="array" ref="N144">_xlfn.SWITCH(K144,200,0,LOOKUP(K144,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>1090.909090909091</v>
+        <v>1145.4545454545455</v>
       </c>
       <c r="O144" s="5" cm="1">
         <f t="array" ref="O144">_xlfn.XLOOKUP(B144&amp;"|"&amp;E144,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1687.5</v>
+        <v>1771.875</v>
       </c>
       <c r="P144" s="8">
         <f t="shared" si="8"/>
-        <v>4288.2914438502676</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4502.7060160427809</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" s="5"/>
       <c r="B145" s="5" t="str">
         <f t="shared" si="6"/>
@@ -8548,28 +8543,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K145,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J145,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B145&amp;"|"&amp;E145,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>4288.2914438502676</v>
+        <v>4502.7060160427809</v>
       </c>
       <c r="M145" s="8">
         <f>LOOKUP(J145,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N145" s="8" cm="1">
         <f t="array" ref="N145">_xlfn.SWITCH(K145,200,0,LOOKUP(K145,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>1090.909090909091</v>
+        <v>1145.4545454545455</v>
       </c>
       <c r="O145" s="5" cm="1">
         <f t="array" ref="O145">_xlfn.XLOOKUP(B145&amp;"|"&amp;E145,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1687.5</v>
+        <v>1771.875</v>
       </c>
       <c r="P145" s="8">
         <f t="shared" si="8"/>
-        <v>4288.2914438502676</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4502.7060160427809</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" s="5"/>
       <c r="B146" s="5" t="str">
         <f t="shared" si="6"/>
@@ -8608,28 +8603,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K146,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J146,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B146&amp;"|"&amp;E146,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>4725.9385026737964</v>
+        <v>4962.2354278074872</v>
       </c>
       <c r="M146" s="8">
         <f>LOOKUP(J146,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1947.5294117647059</v>
+        <v>2044.9058823529413</v>
       </c>
       <c r="N146" s="8" cm="1">
         <f t="array" ref="N146">_xlfn.SWITCH(K146,200,0,LOOKUP(K146,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>1090.909090909091</v>
+        <v>1145.4545454545455</v>
       </c>
       <c r="O146" s="5" cm="1">
         <f t="array" ref="O146">_xlfn.XLOOKUP(B146&amp;"|"&amp;E146,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1687.5</v>
+        <v>1771.875</v>
       </c>
       <c r="P146" s="8">
         <f t="shared" si="8"/>
-        <v>4725.9385026737964</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4962.2354278074872</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147" s="5"/>
       <c r="B147" s="5" t="str">
         <f t="shared" si="6"/>
@@ -8668,28 +8663,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K147,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J147,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B147&amp;"|"&amp;E147,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>4908.2914438502676</v>
+        <v>5153.7060160427809</v>
       </c>
       <c r="M147" s="8">
         <f>LOOKUP(J147,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>2129.8823529411766</v>
+        <v>2236.3764705882354</v>
       </c>
       <c r="N147" s="8" cm="1">
         <f t="array" ref="N147">_xlfn.SWITCH(K147,200,0,LOOKUP(K147,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>1090.909090909091</v>
+        <v>1145.4545454545455</v>
       </c>
       <c r="O147" s="5" cm="1">
         <f t="array" ref="O147">_xlfn.XLOOKUP(B147&amp;"|"&amp;E147,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1687.5</v>
+        <v>1771.875</v>
       </c>
       <c r="P147" s="8">
         <f t="shared" si="8"/>
-        <v>4908.2914438502676</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+        <v>5153.7060160427809</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148" s="5"/>
       <c r="B148" s="5" t="str">
         <f>CONCATENATE(C148, "-", "H1")</f>
@@ -8728,11 +8723,11 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K148,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J148,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B148&amp;"|"&amp;E148,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>2497.3823529411766</v>
+        <v>2622.2514705882354</v>
       </c>
       <c r="M148" s="8">
         <f>LOOKUP(J148,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N148" s="8" cm="1">
         <f t="array" ref="N148">_xlfn.SWITCH(K148,200,0,LOOKUP(K148,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
@@ -8742,14 +8737,14 @@
         <f t="array" ref="O148">_xlfn.XLOOKUP(B148&amp;"|"&amp;E148,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>987.5</v>
+        <v>1036.875</v>
       </c>
       <c r="P148" s="8">
         <f>SUM(M148:O148)</f>
-        <v>2497.3823529411766</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2622.2514705882354</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149" s="5"/>
       <c r="B149" s="5" t="str">
         <f t="shared" ref="B149:B186" si="21">CONCATENATE(C149, "-", "H1")</f>
@@ -8788,11 +8783,11 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K149,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J149,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B149&amp;"|"&amp;E149,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>2935.0294117647059</v>
+        <v>3081.7808823529413</v>
       </c>
       <c r="M149" s="8">
         <f>LOOKUP(J149,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1947.5294117647059</v>
+        <v>2044.9058823529413</v>
       </c>
       <c r="N149" s="8" cm="1">
         <f t="array" ref="N149">_xlfn.SWITCH(K149,200,0,LOOKUP(K149,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
@@ -8802,14 +8797,14 @@
         <f t="array" ref="O149">_xlfn.XLOOKUP(B149&amp;"|"&amp;E149,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>987.5</v>
+        <v>1036.875</v>
       </c>
       <c r="P149" s="8">
         <f t="shared" ref="P149:P195" si="23">SUM(M149:O149)</f>
-        <v>2935.0294117647059</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3081.7808823529413</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" s="5"/>
       <c r="B150" s="5" t="str">
         <f t="shared" si="21"/>
@@ -8848,11 +8843,11 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K150,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J150,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B150&amp;"|"&amp;E150,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3117.3823529411766</v>
+        <v>3273.2514705882354</v>
       </c>
       <c r="M150" s="8">
         <f>LOOKUP(J150,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>2129.8823529411766</v>
+        <v>2236.3764705882354</v>
       </c>
       <c r="N150" s="8" cm="1">
         <f t="array" ref="N150">_xlfn.SWITCH(K150,200,0,LOOKUP(K150,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
@@ -8862,14 +8857,14 @@
         <f t="array" ref="O150">_xlfn.XLOOKUP(B150&amp;"|"&amp;E150,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>987.5</v>
+        <v>1036.875</v>
       </c>
       <c r="P150" s="8">
         <f t="shared" si="23"/>
-        <v>3117.3823529411766</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3273.2514705882354</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
       <c r="B151" s="5" t="str">
         <f t="shared" si="21"/>
@@ -8908,28 +8903,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K151,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J151,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B151&amp;"|"&amp;E151,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>2906.4732620320856</v>
+        <v>3051.7969251336899</v>
       </c>
       <c r="M151" s="8">
         <f>LOOKUP(J151,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N151" s="8" cm="1">
         <f t="array" ref="N151">_xlfn.SWITCH(K151,200,0,LOOKUP(K151,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>409.09090909090907</v>
+        <v>429.54545454545456</v>
       </c>
       <c r="O151" s="5" cm="1">
         <f t="array" ref="O151">_xlfn.XLOOKUP(B151&amp;"|"&amp;E151,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>987.5</v>
+        <v>1036.875</v>
       </c>
       <c r="P151" s="8">
         <f t="shared" si="23"/>
-        <v>2906.4732620320856</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3051.7969251336899</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
       <c r="B152" s="5" t="str">
         <f t="shared" si="21"/>
@@ -8968,28 +8963,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K152,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J152,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B152&amp;"|"&amp;E152,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>2906.4732620320856</v>
+        <v>3051.7969251336899</v>
       </c>
       <c r="M152" s="8">
         <f>LOOKUP(J152,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N152" s="8" cm="1">
         <f t="array" ref="N152">_xlfn.SWITCH(K152,200,0,LOOKUP(K152,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>409.09090909090907</v>
+        <v>429.54545454545456</v>
       </c>
       <c r="O152" s="5" cm="1">
         <f t="array" ref="O152">_xlfn.XLOOKUP(B152&amp;"|"&amp;E152,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>987.5</v>
+        <v>1036.875</v>
       </c>
       <c r="P152" s="8">
         <f t="shared" si="23"/>
-        <v>2906.4732620320856</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3051.7969251336899</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153" s="5"/>
       <c r="B153" s="5" t="str">
         <f t="shared" si="21"/>
@@ -9028,28 +9023,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K153,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J153,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B153&amp;"|"&amp;E153,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>2906.4732620320856</v>
+        <v>3051.7969251336899</v>
       </c>
       <c r="M153" s="8">
         <f>LOOKUP(J153,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N153" s="8" cm="1">
         <f t="array" ref="N153">_xlfn.SWITCH(K153,200,0,LOOKUP(K153,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>409.09090909090907</v>
+        <v>429.54545454545456</v>
       </c>
       <c r="O153" s="5" cm="1">
         <f t="array" ref="O153">_xlfn.XLOOKUP(B153&amp;"|"&amp;E153,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>987.5</v>
+        <v>1036.875</v>
       </c>
       <c r="P153" s="8">
         <f t="shared" si="23"/>
-        <v>2906.4732620320856</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3051.7969251336899</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" s="5"/>
       <c r="B154" s="5" t="str">
         <f t="shared" si="21"/>
@@ -9088,28 +9083,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K154,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J154,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B154&amp;"|"&amp;E154,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3526.4732620320856</v>
+        <v>3702.7969251336899</v>
       </c>
       <c r="M154" s="8">
         <f>LOOKUP(J154,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>2129.8823529411766</v>
+        <v>2236.3764705882354</v>
       </c>
       <c r="N154" s="8" cm="1">
         <f t="array" ref="N154">_xlfn.SWITCH(K154,200,0,LOOKUP(K154,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>409.09090909090907</v>
+        <v>429.54545454545456</v>
       </c>
       <c r="O154" s="5" cm="1">
         <f t="array" ref="O154">_xlfn.XLOOKUP(B154&amp;"|"&amp;E154,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>987.5</v>
+        <v>1036.875</v>
       </c>
       <c r="P154" s="8">
         <f t="shared" si="23"/>
-        <v>3526.4732620320856</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3702.7969251336899</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A155" s="5"/>
       <c r="B155" s="5" t="str">
         <f t="shared" si="21"/>
@@ -9148,28 +9143,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K155,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J155,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B155&amp;"|"&amp;E155,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3588.2914438502676</v>
+        <v>3767.7060160427809</v>
       </c>
       <c r="M155" s="8">
         <f>LOOKUP(J155,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N155" s="8" cm="1">
         <f t="array" ref="N155">_xlfn.SWITCH(K155,200,0,LOOKUP(K155,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>1090.909090909091</v>
+        <v>1145.4545454545455</v>
       </c>
       <c r="O155" s="5" cm="1">
         <f t="array" ref="O155">_xlfn.XLOOKUP(B155&amp;"|"&amp;E155,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>987.5</v>
+        <v>1036.875</v>
       </c>
       <c r="P155" s="8">
         <f t="shared" si="23"/>
-        <v>3588.2914438502676</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3767.7060160427809</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156" s="5"/>
       <c r="B156" s="5" t="str">
         <f t="shared" si="21"/>
@@ -9208,28 +9203,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K156,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J156,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B156&amp;"|"&amp;E156,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3588.2914438502676</v>
+        <v>3767.7060160427809</v>
       </c>
       <c r="M156" s="8">
         <f>LOOKUP(J156,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N156" s="8" cm="1">
         <f t="array" ref="N156">_xlfn.SWITCH(K156,200,0,LOOKUP(K156,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>1090.909090909091</v>
+        <v>1145.4545454545455</v>
       </c>
       <c r="O156" s="5" cm="1">
         <f t="array" ref="O156">_xlfn.XLOOKUP(B156&amp;"|"&amp;E156,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>987.5</v>
+        <v>1036.875</v>
       </c>
       <c r="P156" s="8">
         <f t="shared" si="23"/>
-        <v>3588.2914438502676</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3767.7060160427809</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A157" s="5"/>
       <c r="B157" s="5" t="str">
         <f t="shared" si="21"/>
@@ -9268,28 +9263,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K157,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J157,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B157&amp;"|"&amp;E157,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3588.2914438502676</v>
+        <v>3767.7060160427809</v>
       </c>
       <c r="M157" s="8">
         <f>LOOKUP(J157,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N157" s="8" cm="1">
         <f t="array" ref="N157">_xlfn.SWITCH(K157,200,0,LOOKUP(K157,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>1090.909090909091</v>
+        <v>1145.4545454545455</v>
       </c>
       <c r="O157" s="5" cm="1">
         <f t="array" ref="O157">_xlfn.XLOOKUP(B157&amp;"|"&amp;E157,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>987.5</v>
+        <v>1036.875</v>
       </c>
       <c r="P157" s="8">
         <f t="shared" si="23"/>
-        <v>3588.2914438502676</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3767.7060160427809</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" s="5"/>
       <c r="B158" s="5" t="str">
         <f t="shared" si="21"/>
@@ -9328,28 +9323,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K158,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J158,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B158&amp;"|"&amp;E158,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>4025.9385026737968</v>
+        <v>4227.2354278074872</v>
       </c>
       <c r="M158" s="8">
         <f>LOOKUP(J158,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1947.5294117647059</v>
+        <v>2044.9058823529413</v>
       </c>
       <c r="N158" s="8" cm="1">
         <f t="array" ref="N158">_xlfn.SWITCH(K158,200,0,LOOKUP(K158,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>1090.909090909091</v>
+        <v>1145.4545454545455</v>
       </c>
       <c r="O158" s="5" cm="1">
         <f t="array" ref="O158">_xlfn.XLOOKUP(B158&amp;"|"&amp;E158,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>987.5</v>
+        <v>1036.875</v>
       </c>
       <c r="P158" s="8">
         <f t="shared" si="23"/>
-        <v>4025.9385026737968</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4227.2354278074872</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A159" s="5"/>
       <c r="B159" s="5" t="str">
         <f t="shared" si="21"/>
@@ -9388,28 +9383,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K159,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J159,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B159&amp;"|"&amp;E159,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>4208.2914438502676</v>
+        <v>4418.7060160427809</v>
       </c>
       <c r="M159" s="8">
         <f>LOOKUP(J159,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>2129.8823529411766</v>
+        <v>2236.3764705882354</v>
       </c>
       <c r="N159" s="8" cm="1">
         <f t="array" ref="N159">_xlfn.SWITCH(K159,200,0,LOOKUP(K159,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>1090.909090909091</v>
+        <v>1145.4545454545455</v>
       </c>
       <c r="O159" s="5" cm="1">
         <f t="array" ref="O159">_xlfn.XLOOKUP(B159&amp;"|"&amp;E159,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>987.5</v>
+        <v>1036.875</v>
       </c>
       <c r="P159" s="8">
         <f t="shared" si="23"/>
-        <v>4208.2914438502676</v>
-      </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4418.7060160427809</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A160" s="5"/>
       <c r="B160" s="5" t="str">
         <f t="shared" si="21"/>
@@ -9448,11 +9443,11 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K160,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J160,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B160&amp;"|"&amp;E160,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>2953.6323529411766</v>
+        <v>3101.3139705882354</v>
       </c>
       <c r="M160" s="8">
         <f>LOOKUP(J160,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N160" s="8" cm="1">
         <f t="array" ref="N160">_xlfn.SWITCH(K160,200,0,LOOKUP(K160,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
@@ -9462,14 +9457,14 @@
         <f t="array" ref="O160">_xlfn.XLOOKUP(B160&amp;"|"&amp;E160,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1443.75</v>
+        <v>1515.9375</v>
       </c>
       <c r="P160" s="8">
         <f t="shared" si="23"/>
-        <v>2953.6323529411766</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3101.3139705882354</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161" s="5"/>
       <c r="B161" s="5" t="str">
         <f t="shared" si="21"/>
@@ -9508,11 +9503,11 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K161,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J161,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B161&amp;"|"&amp;E161,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3391.2794117647059</v>
+        <v>3560.8433823529413</v>
       </c>
       <c r="M161" s="8">
         <f>LOOKUP(J161,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1947.5294117647059</v>
+        <v>2044.9058823529413</v>
       </c>
       <c r="N161" s="8" cm="1">
         <f t="array" ref="N161">_xlfn.SWITCH(K161,200,0,LOOKUP(K161,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
@@ -9522,14 +9517,14 @@
         <f t="array" ref="O161">_xlfn.XLOOKUP(B161&amp;"|"&amp;E161,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1443.75</v>
+        <v>1515.9375</v>
       </c>
       <c r="P161" s="8">
         <f t="shared" si="23"/>
-        <v>3391.2794117647059</v>
-      </c>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3560.8433823529413</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A162" s="5"/>
       <c r="B162" s="5" t="str">
         <f t="shared" si="21"/>
@@ -9568,11 +9563,11 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K162,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J162,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B162&amp;"|"&amp;E162,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3573.6323529411766</v>
+        <v>3752.3139705882354</v>
       </c>
       <c r="M162" s="8">
         <f>LOOKUP(J162,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>2129.8823529411766</v>
+        <v>2236.3764705882354</v>
       </c>
       <c r="N162" s="8" cm="1">
         <f t="array" ref="N162">_xlfn.SWITCH(K162,200,0,LOOKUP(K162,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
@@ -9582,14 +9577,14 @@
         <f t="array" ref="O162">_xlfn.XLOOKUP(B162&amp;"|"&amp;E162,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1443.75</v>
+        <v>1515.9375</v>
       </c>
       <c r="P162" s="8">
         <f t="shared" si="23"/>
-        <v>3573.6323529411766</v>
-      </c>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3752.3139705882354</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163" s="5"/>
       <c r="B163" s="5" t="str">
         <f t="shared" si="21"/>
@@ -9628,28 +9623,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K163,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J163,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B163&amp;"|"&amp;E163,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3362.7232620320856</v>
+        <v>3530.8594251336899</v>
       </c>
       <c r="M163" s="8">
         <f>LOOKUP(J163,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N163" s="8" cm="1">
         <f t="array" ref="N163">_xlfn.SWITCH(K163,200,0,LOOKUP(K163,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>409.09090909090907</v>
+        <v>429.54545454545456</v>
       </c>
       <c r="O163" s="5" cm="1">
         <f t="array" ref="O163">_xlfn.XLOOKUP(B163&amp;"|"&amp;E163,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1443.75</v>
+        <v>1515.9375</v>
       </c>
       <c r="P163" s="8">
         <f t="shared" si="23"/>
-        <v>3362.7232620320856</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3530.8594251336899</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" s="5"/>
       <c r="B164" s="5" t="str">
         <f t="shared" si="21"/>
@@ -9688,28 +9683,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K164,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J164,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B164&amp;"|"&amp;E164,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3362.7232620320856</v>
+        <v>3530.8594251336899</v>
       </c>
       <c r="M164" s="8">
         <f>LOOKUP(J164,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N164" s="8" cm="1">
         <f t="array" ref="N164">_xlfn.SWITCH(K164,200,0,LOOKUP(K164,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>409.09090909090907</v>
+        <v>429.54545454545456</v>
       </c>
       <c r="O164" s="5" cm="1">
         <f t="array" ref="O164">_xlfn.XLOOKUP(B164&amp;"|"&amp;E164,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1443.75</v>
+        <v>1515.9375</v>
       </c>
       <c r="P164" s="8">
         <f t="shared" si="23"/>
-        <v>3362.7232620320856</v>
-      </c>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3530.8594251336899</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165" s="5"/>
       <c r="B165" s="5" t="str">
         <f t="shared" si="21"/>
@@ -9748,28 +9743,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K165,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J165,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B165&amp;"|"&amp;E165,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3362.7232620320856</v>
+        <v>3530.8594251336899</v>
       </c>
       <c r="M165" s="8">
         <f>LOOKUP(J165,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N165" s="8" cm="1">
         <f t="array" ref="N165">_xlfn.SWITCH(K165,200,0,LOOKUP(K165,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>409.09090909090907</v>
+        <v>429.54545454545456</v>
       </c>
       <c r="O165" s="5" cm="1">
         <f t="array" ref="O165">_xlfn.XLOOKUP(B165&amp;"|"&amp;E165,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1443.75</v>
+        <v>1515.9375</v>
       </c>
       <c r="P165" s="8">
         <f t="shared" si="23"/>
-        <v>3362.7232620320856</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3530.8594251336899</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166" s="5"/>
       <c r="B166" s="5" t="str">
         <f t="shared" si="21"/>
@@ -9808,28 +9803,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K166,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J166,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B166&amp;"|"&amp;E166,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3982.7232620320856</v>
+        <v>4181.8594251336899</v>
       </c>
       <c r="M166" s="8">
         <f>LOOKUP(J166,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>2129.8823529411766</v>
+        <v>2236.3764705882354</v>
       </c>
       <c r="N166" s="8" cm="1">
         <f t="array" ref="N166">_xlfn.SWITCH(K166,200,0,LOOKUP(K166,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>409.09090909090907</v>
+        <v>429.54545454545456</v>
       </c>
       <c r="O166" s="5" cm="1">
         <f t="array" ref="O166">_xlfn.XLOOKUP(B166&amp;"|"&amp;E166,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1443.75</v>
+        <v>1515.9375</v>
       </c>
       <c r="P166" s="8">
         <f t="shared" si="23"/>
-        <v>3982.7232620320856</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4181.8594251336899</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A167" s="5"/>
       <c r="B167" s="5" t="str">
         <f t="shared" si="21"/>
@@ -9868,28 +9863,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K167,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J167,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B167&amp;"|"&amp;E167,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>4044.5414438502676</v>
+        <v>4246.7685160427809</v>
       </c>
       <c r="M167" s="8">
         <f>LOOKUP(J167,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N167" s="8" cm="1">
         <f t="array" ref="N167">_xlfn.SWITCH(K167,200,0,LOOKUP(K167,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>1090.909090909091</v>
+        <v>1145.4545454545455</v>
       </c>
       <c r="O167" s="5" cm="1">
         <f t="array" ref="O167">_xlfn.XLOOKUP(B167&amp;"|"&amp;E167,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1443.75</v>
+        <v>1515.9375</v>
       </c>
       <c r="P167" s="8">
         <f t="shared" si="23"/>
-        <v>4044.5414438502676</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4246.7685160427809</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A168" s="5"/>
       <c r="B168" s="5" t="str">
         <f t="shared" si="21"/>
@@ -9928,28 +9923,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K168,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J168,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B168&amp;"|"&amp;E168,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>4044.5414438502676</v>
+        <v>4246.7685160427809</v>
       </c>
       <c r="M168" s="8">
         <f>LOOKUP(J168,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N168" s="8" cm="1">
         <f t="array" ref="N168">_xlfn.SWITCH(K168,200,0,LOOKUP(K168,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>1090.909090909091</v>
+        <v>1145.4545454545455</v>
       </c>
       <c r="O168" s="5" cm="1">
         <f t="array" ref="O168">_xlfn.XLOOKUP(B168&amp;"|"&amp;E168,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1443.75</v>
+        <v>1515.9375</v>
       </c>
       <c r="P168" s="8">
         <f t="shared" si="23"/>
-        <v>4044.5414438502676</v>
-      </c>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4246.7685160427809</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A169" s="5"/>
       <c r="B169" s="5" t="str">
         <f t="shared" si="21"/>
@@ -9988,28 +9983,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K169,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J169,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B169&amp;"|"&amp;E169,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>4044.5414438502676</v>
+        <v>4246.7685160427809</v>
       </c>
       <c r="M169" s="8">
         <f>LOOKUP(J169,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N169" s="8" cm="1">
         <f t="array" ref="N169">_xlfn.SWITCH(K169,200,0,LOOKUP(K169,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>1090.909090909091</v>
+        <v>1145.4545454545455</v>
       </c>
       <c r="O169" s="5" cm="1">
         <f t="array" ref="O169">_xlfn.XLOOKUP(B169&amp;"|"&amp;E169,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1443.75</v>
+        <v>1515.9375</v>
       </c>
       <c r="P169" s="8">
         <f t="shared" si="23"/>
-        <v>4044.5414438502676</v>
-      </c>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4246.7685160427809</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170" s="5"/>
       <c r="B170" s="5" t="str">
         <f t="shared" si="21"/>
@@ -10048,28 +10043,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K170,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J170,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B170&amp;"|"&amp;E170,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>4482.1885026737964</v>
+        <v>4706.2979278074872</v>
       </c>
       <c r="M170" s="8">
         <f>LOOKUP(J170,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1947.5294117647059</v>
+        <v>2044.9058823529413</v>
       </c>
       <c r="N170" s="8" cm="1">
         <f t="array" ref="N170">_xlfn.SWITCH(K170,200,0,LOOKUP(K170,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>1090.909090909091</v>
+        <v>1145.4545454545455</v>
       </c>
       <c r="O170" s="5" cm="1">
         <f t="array" ref="O170">_xlfn.XLOOKUP(B170&amp;"|"&amp;E170,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1443.75</v>
+        <v>1515.9375</v>
       </c>
       <c r="P170" s="8">
         <f t="shared" si="23"/>
-        <v>4482.1885026737964</v>
-      </c>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4706.2979278074872</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A171" s="5"/>
       <c r="B171" s="5" t="str">
         <f t="shared" si="21"/>
@@ -10108,28 +10103,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K171,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J171,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B171&amp;"|"&amp;E171,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>4664.5414438502676</v>
+        <v>4897.7685160427809</v>
       </c>
       <c r="M171" s="8">
         <f>LOOKUP(J171,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>2129.8823529411766</v>
+        <v>2236.3764705882354</v>
       </c>
       <c r="N171" s="8" cm="1">
         <f t="array" ref="N171">_xlfn.SWITCH(K171,200,0,LOOKUP(K171,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>1090.909090909091</v>
+        <v>1145.4545454545455</v>
       </c>
       <c r="O171" s="5" cm="1">
         <f t="array" ref="O171">_xlfn.XLOOKUP(B171&amp;"|"&amp;E171,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1443.75</v>
+        <v>1515.9375</v>
       </c>
       <c r="P171" s="8">
         <f t="shared" si="23"/>
-        <v>4664.5414438502676</v>
-      </c>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4897.7685160427809</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" s="5"/>
       <c r="B172" s="5" t="str">
         <f t="shared" si="21"/>
@@ -10168,11 +10163,11 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K172,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J172,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B172&amp;"|"&amp;E172,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>2497.3823529411766</v>
+        <v>2622.2514705882354</v>
       </c>
       <c r="M172" s="8">
         <f>LOOKUP(J172,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N172" s="8" cm="1">
         <f t="array" ref="N172">_xlfn.SWITCH(K172,200,0,LOOKUP(K172,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
@@ -10182,14 +10177,14 @@
         <f t="array" ref="O172">_xlfn.XLOOKUP(B172&amp;"|"&amp;E172,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>987.5</v>
+        <v>1036.875</v>
       </c>
       <c r="P172" s="8">
         <f t="shared" si="23"/>
-        <v>2497.3823529411766</v>
-      </c>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2622.2514705882354</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173" s="5"/>
       <c r="B173" s="5" t="str">
         <f t="shared" si="21"/>
@@ -10228,11 +10223,11 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K173,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J173,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B173&amp;"|"&amp;E173,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>2935.0294117647059</v>
+        <v>3081.7808823529413</v>
       </c>
       <c r="M173" s="8">
         <f>LOOKUP(J173,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1947.5294117647059</v>
+        <v>2044.9058823529413</v>
       </c>
       <c r="N173" s="8" cm="1">
         <f t="array" ref="N173">_xlfn.SWITCH(K173,200,0,LOOKUP(K173,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
@@ -10242,14 +10237,14 @@
         <f t="array" ref="O173">_xlfn.XLOOKUP(B173&amp;"|"&amp;E173,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>987.5</v>
+        <v>1036.875</v>
       </c>
       <c r="P173" s="8">
         <f t="shared" si="23"/>
-        <v>2935.0294117647059</v>
-      </c>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3081.7808823529413</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174" s="5"/>
       <c r="B174" s="5" t="str">
         <f t="shared" si="21"/>
@@ -10288,11 +10283,11 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K174,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J174,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B174&amp;"|"&amp;E174,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3117.3823529411766</v>
+        <v>3273.2514705882354</v>
       </c>
       <c r="M174" s="8">
         <f>LOOKUP(J174,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>2129.8823529411766</v>
+        <v>2236.3764705882354</v>
       </c>
       <c r="N174" s="8" cm="1">
         <f t="array" ref="N174">_xlfn.SWITCH(K174,200,0,LOOKUP(K174,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
@@ -10302,14 +10297,14 @@
         <f t="array" ref="O174">_xlfn.XLOOKUP(B174&amp;"|"&amp;E174,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>987.5</v>
+        <v>1036.875</v>
       </c>
       <c r="P174" s="8">
         <f t="shared" si="23"/>
-        <v>3117.3823529411766</v>
-      </c>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3273.2514705882354</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A175" s="5"/>
       <c r="B175" s="5" t="str">
         <f t="shared" si="21"/>
@@ -10348,28 +10343,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K175,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J175,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B175&amp;"|"&amp;E175,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>2906.4732620320856</v>
+        <v>3051.7969251336899</v>
       </c>
       <c r="M175" s="8">
         <f>LOOKUP(J175,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N175" s="8" cm="1">
         <f t="array" ref="N175">_xlfn.SWITCH(K175,200,0,LOOKUP(K175,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>409.09090909090907</v>
+        <v>429.54545454545456</v>
       </c>
       <c r="O175" s="5" cm="1">
         <f t="array" ref="O175">_xlfn.XLOOKUP(B175&amp;"|"&amp;E175,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>987.5</v>
+        <v>1036.875</v>
       </c>
       <c r="P175" s="8">
         <f t="shared" si="23"/>
-        <v>2906.4732620320856</v>
-      </c>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3051.7969251336899</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176" s="5"/>
       <c r="B176" s="5" t="str">
         <f t="shared" si="21"/>
@@ -10408,28 +10403,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K176,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J176,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B176&amp;"|"&amp;E176,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>2906.4732620320856</v>
+        <v>3051.7969251336899</v>
       </c>
       <c r="M176" s="8">
         <f>LOOKUP(J176,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N176" s="8" cm="1">
         <f t="array" ref="N176">_xlfn.SWITCH(K176,200,0,LOOKUP(K176,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>409.09090909090907</v>
+        <v>429.54545454545456</v>
       </c>
       <c r="O176" s="5" cm="1">
         <f t="array" ref="O176">_xlfn.XLOOKUP(B176&amp;"|"&amp;E176,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>987.5</v>
+        <v>1036.875</v>
       </c>
       <c r="P176" s="8">
         <f t="shared" si="23"/>
-        <v>2906.4732620320856</v>
-      </c>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3051.7969251336899</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A177" s="5"/>
       <c r="B177" s="5" t="str">
         <f t="shared" si="21"/>
@@ -10468,28 +10463,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K177,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J177,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B177&amp;"|"&amp;E177,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>2906.4732620320856</v>
+        <v>3051.7969251336899</v>
       </c>
       <c r="M177" s="8">
         <f>LOOKUP(J177,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N177" s="8" cm="1">
         <f t="array" ref="N177">_xlfn.SWITCH(K177,200,0,LOOKUP(K177,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>409.09090909090907</v>
+        <v>429.54545454545456</v>
       </c>
       <c r="O177" s="5" cm="1">
         <f t="array" ref="O177">_xlfn.XLOOKUP(B177&amp;"|"&amp;E177,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>987.5</v>
+        <v>1036.875</v>
       </c>
       <c r="P177" s="8">
         <f t="shared" si="23"/>
-        <v>2906.4732620320856</v>
-      </c>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3051.7969251336899</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178" s="5"/>
       <c r="B178" s="5" t="str">
         <f t="shared" si="21"/>
@@ -10528,28 +10523,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K178,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J178,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B178&amp;"|"&amp;E178,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3526.4732620320856</v>
+        <v>3702.7969251336899</v>
       </c>
       <c r="M178" s="8">
         <f>LOOKUP(J178,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>2129.8823529411766</v>
+        <v>2236.3764705882354</v>
       </c>
       <c r="N178" s="8" cm="1">
         <f t="array" ref="N178">_xlfn.SWITCH(K178,200,0,LOOKUP(K178,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>409.09090909090907</v>
+        <v>429.54545454545456</v>
       </c>
       <c r="O178" s="5" cm="1">
         <f t="array" ref="O178">_xlfn.XLOOKUP(B178&amp;"|"&amp;E178,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>987.5</v>
+        <v>1036.875</v>
       </c>
       <c r="P178" s="8">
         <f t="shared" si="23"/>
-        <v>3526.4732620320856</v>
-      </c>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3702.7969251336899</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A179" s="5"/>
       <c r="B179" s="5" t="str">
         <f t="shared" si="21"/>
@@ -10588,28 +10583,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K179,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J179,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B179&amp;"|"&amp;E179,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3588.2914438502676</v>
+        <v>3767.7060160427809</v>
       </c>
       <c r="M179" s="8">
         <f>LOOKUP(J179,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N179" s="8" cm="1">
         <f t="array" ref="N179">_xlfn.SWITCH(K179,200,0,LOOKUP(K179,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>1090.909090909091</v>
+        <v>1145.4545454545455</v>
       </c>
       <c r="O179" s="5" cm="1">
         <f t="array" ref="O179">_xlfn.XLOOKUP(B179&amp;"|"&amp;E179,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>987.5</v>
+        <v>1036.875</v>
       </c>
       <c r="P179" s="8">
         <f t="shared" si="23"/>
-        <v>3588.2914438502676</v>
-      </c>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3767.7060160427809</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A180" s="5"/>
       <c r="B180" s="5" t="str">
         <f t="shared" si="21"/>
@@ -10648,28 +10643,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K180,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J180,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B180&amp;"|"&amp;E180,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3588.2914438502676</v>
+        <v>3767.7060160427809</v>
       </c>
       <c r="M180" s="8">
         <f>LOOKUP(J180,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N180" s="8" cm="1">
         <f t="array" ref="N180">_xlfn.SWITCH(K180,200,0,LOOKUP(K180,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>1090.909090909091</v>
+        <v>1145.4545454545455</v>
       </c>
       <c r="O180" s="5" cm="1">
         <f t="array" ref="O180">_xlfn.XLOOKUP(B180&amp;"|"&amp;E180,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>987.5</v>
+        <v>1036.875</v>
       </c>
       <c r="P180" s="8">
         <f t="shared" si="23"/>
-        <v>3588.2914438502676</v>
-      </c>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3767.7060160427809</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A181" s="5"/>
       <c r="B181" s="5" t="str">
         <f t="shared" si="21"/>
@@ -10708,28 +10703,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K181,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J181,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B181&amp;"|"&amp;E181,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3588.2914438502676</v>
+        <v>3767.7060160427809</v>
       </c>
       <c r="M181" s="8">
         <f>LOOKUP(J181,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N181" s="8" cm="1">
         <f t="array" ref="N181">_xlfn.SWITCH(K181,200,0,LOOKUP(K181,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>1090.909090909091</v>
+        <v>1145.4545454545455</v>
       </c>
       <c r="O181" s="5" cm="1">
         <f t="array" ref="O181">_xlfn.XLOOKUP(B181&amp;"|"&amp;E181,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>987.5</v>
+        <v>1036.875</v>
       </c>
       <c r="P181" s="8">
         <f t="shared" si="23"/>
-        <v>3588.2914438502676</v>
-      </c>
-    </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3767.7060160427809</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A182" s="5"/>
       <c r="B182" s="5" t="str">
         <f t="shared" si="21"/>
@@ -10768,28 +10763,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K182,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J182,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B182&amp;"|"&amp;E182,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>4025.9385026737968</v>
+        <v>4227.2354278074872</v>
       </c>
       <c r="M182" s="8">
         <f>LOOKUP(J182,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1947.5294117647059</v>
+        <v>2044.9058823529413</v>
       </c>
       <c r="N182" s="8" cm="1">
         <f t="array" ref="N182">_xlfn.SWITCH(K182,200,0,LOOKUP(K182,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>1090.909090909091</v>
+        <v>1145.4545454545455</v>
       </c>
       <c r="O182" s="5" cm="1">
         <f t="array" ref="O182">_xlfn.XLOOKUP(B182&amp;"|"&amp;E182,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>987.5</v>
+        <v>1036.875</v>
       </c>
       <c r="P182" s="8">
         <f t="shared" si="23"/>
-        <v>4025.9385026737968</v>
-      </c>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4227.2354278074872</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A183" s="5"/>
       <c r="B183" s="5" t="str">
         <f t="shared" si="21"/>
@@ -10828,28 +10823,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K183,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J183,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B183&amp;"|"&amp;E183,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>4208.2914438502676</v>
+        <v>4418.7060160427809</v>
       </c>
       <c r="M183" s="8">
         <f>LOOKUP(J183,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>2129.8823529411766</v>
+        <v>2236.3764705882354</v>
       </c>
       <c r="N183" s="8" cm="1">
         <f t="array" ref="N183">_xlfn.SWITCH(K183,200,0,LOOKUP(K183,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>1090.909090909091</v>
+        <v>1145.4545454545455</v>
       </c>
       <c r="O183" s="5" cm="1">
         <f t="array" ref="O183">_xlfn.XLOOKUP(B183&amp;"|"&amp;E183,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>987.5</v>
+        <v>1036.875</v>
       </c>
       <c r="P183" s="8">
         <f t="shared" si="23"/>
-        <v>4208.2914438502676</v>
-      </c>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4418.7060160427809</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A184" s="5"/>
       <c r="B184" s="5" t="str">
         <f t="shared" si="21"/>
@@ -10888,11 +10883,11 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K184,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J184,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B184&amp;"|"&amp;E184,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3084.8823529411766</v>
+        <v>3239.1264705882354</v>
       </c>
       <c r="M184" s="8">
         <f>LOOKUP(J184,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N184" s="8" cm="1">
         <f t="array" ref="N184">_xlfn.SWITCH(K184,200,0,LOOKUP(K184,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
@@ -10902,14 +10897,14 @@
         <f t="array" ref="O184">_xlfn.XLOOKUP(B184&amp;"|"&amp;E184,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1575</v>
+        <v>1653.75</v>
       </c>
       <c r="P184" s="8">
         <f t="shared" si="23"/>
-        <v>3084.8823529411766</v>
-      </c>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3239.1264705882354</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A185" s="5"/>
       <c r="B185" s="5" t="str">
         <f t="shared" si="21"/>
@@ -10948,11 +10943,11 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K185,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J185,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B185&amp;"|"&amp;E185,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3522.5294117647059</v>
+        <v>3698.6558823529413</v>
       </c>
       <c r="M185" s="8">
         <f>LOOKUP(J185,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1947.5294117647059</v>
+        <v>2044.9058823529413</v>
       </c>
       <c r="N185" s="8" cm="1">
         <f t="array" ref="N185">_xlfn.SWITCH(K185,200,0,LOOKUP(K185,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
@@ -10962,14 +10957,14 @@
         <f t="array" ref="O185">_xlfn.XLOOKUP(B185&amp;"|"&amp;E185,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1575</v>
+        <v>1653.75</v>
       </c>
       <c r="P185" s="8">
         <f t="shared" si="23"/>
-        <v>3522.5294117647059</v>
-      </c>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3698.6558823529413</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186" s="5"/>
       <c r="B186" s="5" t="str">
         <f t="shared" si="21"/>
@@ -11008,11 +11003,11 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K186,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J186,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B186&amp;"|"&amp;E186,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3704.8823529411766</v>
+        <v>3890.1264705882354</v>
       </c>
       <c r="M186" s="8">
         <f>LOOKUP(J186,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>2129.8823529411766</v>
+        <v>2236.3764705882354</v>
       </c>
       <c r="N186" s="8" cm="1">
         <f t="array" ref="N186">_xlfn.SWITCH(K186,200,0,LOOKUP(K186,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
@@ -11022,14 +11017,14 @@
         <f t="array" ref="O186">_xlfn.XLOOKUP(B186&amp;"|"&amp;E186,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1575</v>
+        <v>1653.75</v>
       </c>
       <c r="P186" s="8">
         <f t="shared" si="23"/>
-        <v>3704.8823529411766</v>
-      </c>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3890.1264705882354</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A187" s="5"/>
       <c r="B187" s="5" t="str">
         <f>CONCATENATE(C187, "-", "H1")</f>
@@ -11068,28 +11063,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K187,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J187,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B187&amp;"|"&amp;E187,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3493.9732620320856</v>
+        <v>3668.6719251336899</v>
       </c>
       <c r="M187" s="8">
         <f>LOOKUP(J187,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N187" s="8" cm="1">
         <f t="array" ref="N187">_xlfn.SWITCH(K187,200,0,LOOKUP(K187,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>409.09090909090907</v>
+        <v>429.54545454545456</v>
       </c>
       <c r="O187" s="5" cm="1">
         <f t="array" ref="O187">_xlfn.XLOOKUP(B187&amp;"|"&amp;E187,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1575</v>
+        <v>1653.75</v>
       </c>
       <c r="P187" s="8">
         <f t="shared" si="23"/>
-        <v>3493.9732620320856</v>
-      </c>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3668.6719251336899</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A188" s="5"/>
       <c r="B188" s="5" t="str">
         <f t="shared" ref="B188:B195" si="24">CONCATENATE(C188, "-", "H1")</f>
@@ -11128,28 +11123,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K188,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J188,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B188&amp;"|"&amp;E188,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3493.9732620320856</v>
+        <v>3668.6719251336899</v>
       </c>
       <c r="M188" s="8">
         <f>LOOKUP(J188,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N188" s="8" cm="1">
         <f t="array" ref="N188">_xlfn.SWITCH(K188,200,0,LOOKUP(K188,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>409.09090909090907</v>
+        <v>429.54545454545456</v>
       </c>
       <c r="O188" s="5" cm="1">
         <f t="array" ref="O188">_xlfn.XLOOKUP(B188&amp;"|"&amp;E188,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1575</v>
+        <v>1653.75</v>
       </c>
       <c r="P188" s="8">
         <f t="shared" si="23"/>
-        <v>3493.9732620320856</v>
-      </c>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3668.6719251336899</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A189" s="5"/>
       <c r="B189" s="5" t="str">
         <f t="shared" si="24"/>
@@ -11188,28 +11183,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K189,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J189,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B189&amp;"|"&amp;E189,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>3493.9732620320856</v>
+        <v>3668.6719251336899</v>
       </c>
       <c r="M189" s="8">
         <f>LOOKUP(J189,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N189" s="8" cm="1">
         <f t="array" ref="N189">_xlfn.SWITCH(K189,200,0,LOOKUP(K189,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>409.09090909090907</v>
+        <v>429.54545454545456</v>
       </c>
       <c r="O189" s="5" cm="1">
         <f t="array" ref="O189">_xlfn.XLOOKUP(B189&amp;"|"&amp;E189,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1575</v>
+        <v>1653.75</v>
       </c>
       <c r="P189" s="8">
         <f t="shared" si="23"/>
-        <v>3493.9732620320856</v>
-      </c>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3668.6719251336899</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A190" s="5"/>
       <c r="B190" s="5" t="str">
         <f t="shared" si="24"/>
@@ -11248,28 +11243,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K190,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J190,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B190&amp;"|"&amp;E190,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>4113.9732620320856</v>
+        <v>4319.6719251336899</v>
       </c>
       <c r="M190" s="8">
         <f>LOOKUP(J190,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>2129.8823529411766</v>
+        <v>2236.3764705882354</v>
       </c>
       <c r="N190" s="8" cm="1">
         <f t="array" ref="N190">_xlfn.SWITCH(K190,200,0,LOOKUP(K190,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>409.09090909090907</v>
+        <v>429.54545454545456</v>
       </c>
       <c r="O190" s="5" cm="1">
         <f t="array" ref="O190">_xlfn.XLOOKUP(B190&amp;"|"&amp;E190,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1575</v>
+        <v>1653.75</v>
       </c>
       <c r="P190" s="8">
         <f t="shared" si="23"/>
-        <v>4113.9732620320856</v>
-      </c>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4319.6719251336899</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A191" s="5"/>
       <c r="B191" s="5" t="str">
         <f t="shared" si="24"/>
@@ -11308,28 +11303,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K191,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J191,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B191&amp;"|"&amp;E191,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>4175.7914438502676</v>
+        <v>4384.5810160427809</v>
       </c>
       <c r="M191" s="8">
         <f>LOOKUP(J191,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N191" s="8" cm="1">
         <f t="array" ref="N191">_xlfn.SWITCH(K191,200,0,LOOKUP(K191,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>1090.909090909091</v>
+        <v>1145.4545454545455</v>
       </c>
       <c r="O191" s="5" cm="1">
         <f t="array" ref="O191">_xlfn.XLOOKUP(B191&amp;"|"&amp;E191,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1575</v>
+        <v>1653.75</v>
       </c>
       <c r="P191" s="8">
         <f t="shared" si="23"/>
-        <v>4175.7914438502676</v>
-      </c>
-    </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4384.5810160427809</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A192" s="5"/>
       <c r="B192" s="5" t="str">
         <f t="shared" si="24"/>
@@ -11368,28 +11363,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K192,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J192,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B192&amp;"|"&amp;E192,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>4175.7914438502676</v>
+        <v>4384.5810160427809</v>
       </c>
       <c r="M192" s="8">
         <f>LOOKUP(J192,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N192" s="8" cm="1">
         <f t="array" ref="N192">_xlfn.SWITCH(K192,200,0,LOOKUP(K192,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>1090.909090909091</v>
+        <v>1145.4545454545455</v>
       </c>
       <c r="O192" s="5" cm="1">
         <f t="array" ref="O192">_xlfn.XLOOKUP(B192&amp;"|"&amp;E192,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1575</v>
+        <v>1653.75</v>
       </c>
       <c r="P192" s="8">
         <f t="shared" si="23"/>
-        <v>4175.7914438502676</v>
-      </c>
-    </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4384.5810160427809</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A193" s="5"/>
       <c r="B193" s="5" t="str">
         <f t="shared" si="24"/>
@@ -11428,28 +11423,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K193,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J193,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B193&amp;"|"&amp;E193,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>4175.7914438502676</v>
+        <v>4384.5810160427809</v>
       </c>
       <c r="M193" s="8">
         <f>LOOKUP(J193,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="N193" s="8" cm="1">
         <f t="array" ref="N193">_xlfn.SWITCH(K193,200,0,LOOKUP(K193,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>1090.909090909091</v>
+        <v>1145.4545454545455</v>
       </c>
       <c r="O193" s="5" cm="1">
         <f t="array" ref="O193">_xlfn.XLOOKUP(B193&amp;"|"&amp;E193,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1575</v>
+        <v>1653.75</v>
       </c>
       <c r="P193" s="8">
         <f t="shared" si="23"/>
-        <v>4175.7914438502676</v>
-      </c>
-    </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4384.5810160427809</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A194" s="5"/>
       <c r="B194" s="5" t="str">
         <f t="shared" si="24"/>
@@ -11488,28 +11483,28 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K194,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J194,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B194&amp;"|"&amp;E194,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>4613.4385026737964</v>
+        <v>4844.1104278074872</v>
       </c>
       <c r="M194" s="8">
         <f>LOOKUP(J194,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>1947.5294117647059</v>
+        <v>2044.9058823529413</v>
       </c>
       <c r="N194" s="8" cm="1">
         <f t="array" ref="N194">_xlfn.SWITCH(K194,200,0,LOOKUP(K194,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>1090.909090909091</v>
+        <v>1145.4545454545455</v>
       </c>
       <c r="O194" s="5" cm="1">
         <f t="array" ref="O194">_xlfn.XLOOKUP(B194&amp;"|"&amp;E194,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1575</v>
+        <v>1653.75</v>
       </c>
       <c r="P194" s="8">
         <f t="shared" si="23"/>
-        <v>4613.4385026737964</v>
-      </c>
-    </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4844.1104278074872</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A195" s="5"/>
       <c r="B195" s="5" t="str">
         <f t="shared" si="24"/>
@@ -11548,25 +11543,25 @@
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0), LOOKUP(K195,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22) + LOOKUP(J195,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16) + _xlfn.XLOOKUP(B195&amp;"|"&amp;E195,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0))</f>
-        <v>4795.7914438502676</v>
+        <v>5035.5810160427809</v>
       </c>
       <c r="M195" s="8">
         <f>LOOKUP(J195,embodied_original!$C$14:$N$14,embodied_original!$C$16:$N$16)</f>
-        <v>2129.8823529411766</v>
+        <v>2236.3764705882354</v>
       </c>
       <c r="N195" s="8" cm="1">
         <f t="array" ref="N195">_xlfn.SWITCH(K195,200,0,LOOKUP(K195,embodied_original!$C$20:$D$20,embodied_original!$C$22:$D$22))</f>
-        <v>1090.909090909091</v>
+        <v>1145.4545454545455</v>
       </c>
       <c r="O195" s="5" cm="1">
         <f t="array" ref="O195">_xlfn.XLOOKUP(B195&amp;"|"&amp;E195,
         Calculate_cap_emi!$L$14:$L$21&amp;"|"&amp;Calculate_cap_emi!$I$14:$I$21,
         Calculate_cap_emi!$AG$14:$AG$21, "Not found", 0)</f>
-        <v>1575</v>
+        <v>1653.75</v>
       </c>
       <c r="P195" s="8">
         <f t="shared" si="23"/>
-        <v>4795.7914438502676</v>
+        <v>5035.5810160427809</v>
       </c>
     </row>
   </sheetData>
@@ -11585,24 +11580,24 @@
   <dimension ref="A1:AG21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="AG14" sqref="AG14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.33203125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -11628,7 +11623,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -11655,7 +11650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -11682,7 +11677,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -11709,7 +11704,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -11736,7 +11731,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>22</v>
       </c>
@@ -11759,7 +11754,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -11795,7 +11790,7 @@
         <v>11.000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -11831,7 +11826,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -11867,7 +11862,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -11903,7 +11898,7 @@
         <v>12.399999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="W12" t="s">
         <v>52</v>
       </c>
@@ -11914,7 +11909,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
         <v>40</v>
@@ -11989,7 +11984,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="I14" s="4" t="s">
         <v>3</v>
       </c>
@@ -12053,30 +12048,30 @@
       </c>
       <c r="AB14" s="4">
         <f>LOOKUP(O14,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+LOOKUP(P14,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+LOOKUP(Q14,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+LOOKUP(R14,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+_xlfn.IFNA(LOOKUP(S14,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4),0)+_xlfn.IFNA(LOOKUP(T14,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4),0)</f>
-        <v>1007.0588235294117</v>
+        <v>1057.4117647058824</v>
       </c>
       <c r="AC14" s="4">
         <f>LOOKUP(X14,embodied_original!$C$5:$X$5,embodied_original!$C$7:$X$7)</f>
-        <v>1267.6632889567977</v>
+        <v>1331.0464534046375</v>
       </c>
       <c r="AD14" s="4">
         <f>LOOKUP(Q14,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+LOOKUP(R14,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+_xlfn.IFNA(LOOKUP(S14,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4),0)+_xlfn.IFNA(LOOKUP(T14,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4),0)</f>
-        <v>503.52941176470586</v>
+        <v>528.70588235294122</v>
       </c>
       <c r="AE14" s="4">
         <f>LOOKUP(O14,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+LOOKUP(P14,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)</f>
-        <v>503.52941176470586</v>
+        <v>528.70588235294122</v>
       </c>
       <c r="AF14" s="4">
         <f>LOOKUP(N14,embodied_original!$C$5:$X$5,embodied_original!$C$7:$X$7)</f>
-        <v>858.00441176470588</v>
+        <v>900.90463235294112</v>
       </c>
       <c r="AG14" s="4">
         <f>LOOKUP(_xlfn.CEILING.MATH(O14,1),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19)+LOOKUP(_xlfn.CEILING.MATH(P14),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19)+LOOKUP(_xlfn.CEILING.MATH(Q14),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19)+LOOKUP(_xlfn.CEILING.MATH(R14),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19)+_xlfn.IFNA(LOOKUP(_xlfn.CEILING.MATH(S14),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19),0)+_xlfn.IFNA(LOOKUP(_xlfn.CEILING.MATH(T14),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19),0)</f>
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+        <v>1076.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="I15" s="4" t="s">
         <v>3</v>
       </c>
@@ -12140,30 +12135,30 @@
       </c>
       <c r="AB15" s="4">
         <f>LOOKUP(O15,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+LOOKUP(P15,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+LOOKUP(Q15,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+LOOKUP(R15,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+_xlfn.IFNA(LOOKUP(S15,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4),0)+_xlfn.IFNA(LOOKUP(T15,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4),0)</f>
-        <v>1007.0588235294117</v>
+        <v>1057.4117647058824</v>
       </c>
       <c r="AC15" s="4">
         <f>LOOKUP(X15,embodied_original!$C$5:$X$5,embodied_original!$C$7:$X$7)</f>
-        <v>817.14705882352939</v>
+        <v>858.00441176470588</v>
       </c>
       <c r="AD15" s="4">
         <f>LOOKUP(Q15,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+LOOKUP(R15,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+_xlfn.IFNA(LOOKUP(S15,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4),0)+_xlfn.IFNA(LOOKUP(T15,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4),0)</f>
-        <v>503.52941176470586</v>
+        <v>528.70588235294122</v>
       </c>
       <c r="AE15" s="4">
         <f>LOOKUP(O15,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+LOOKUP(P15,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)</f>
-        <v>503.52941176470586</v>
+        <v>528.70588235294122</v>
       </c>
       <c r="AF15" s="4">
         <f>LOOKUP(N15,embodied_original!$C$5:$X$5,embodied_original!$C$7:$X$7)</f>
-        <v>705.88235294117646</v>
+        <v>741.17647058823525</v>
       </c>
       <c r="AG15" s="4">
         <f>LOOKUP(_xlfn.CEILING.MATH(O15,1),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19)+LOOKUP(_xlfn.CEILING.MATH(P15),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19)+LOOKUP(_xlfn.CEILING.MATH(Q15),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19)+LOOKUP(_xlfn.CEILING.MATH(R15),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19)+_xlfn.IFNA(LOOKUP(_xlfn.CEILING.MATH(S15),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19),0)+_xlfn.IFNA(LOOKUP(_xlfn.CEILING.MATH(T15),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19),0)</f>
-        <v>987.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+        <v>1036.875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="I16" s="4" t="s">
         <v>11</v>
       </c>
@@ -12227,30 +12222,30 @@
       </c>
       <c r="AB16" s="4">
         <f>LOOKUP(O16,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+LOOKUP(P16,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+LOOKUP(Q16,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+LOOKUP(R16,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+_xlfn.IFNA(LOOKUP(S16,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4),0)+_xlfn.IFNA(LOOKUP(T16,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4),0)</f>
-        <v>1007.0588235294117</v>
+        <v>1057.4117647058824</v>
       </c>
       <c r="AC16" s="4">
         <f>LOOKUP(X16,embodied_original!$C$5:$X$5,embodied_original!$C$7:$X$7)</f>
-        <v>1966.5618285188073</v>
+        <v>2064.8899199447478</v>
       </c>
       <c r="AD16" s="4">
         <f>LOOKUP(Q16,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+LOOKUP(R16,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+_xlfn.IFNA(LOOKUP(S16,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4),0)+_xlfn.IFNA(LOOKUP(T16,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4),0)</f>
-        <v>503.52941176470586</v>
+        <v>528.70588235294122</v>
       </c>
       <c r="AE16" s="4">
         <f>LOOKUP(O16,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+LOOKUP(P16,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)</f>
-        <v>503.52941176470586</v>
+        <v>528.70588235294122</v>
       </c>
       <c r="AF16" s="4">
         <f>LOOKUP(N16,embodied_original!$C$5:$X$5,embodied_original!$C$7:$X$7)</f>
-        <v>993.24735716911789</v>
+        <v>1042.9097250275738</v>
       </c>
       <c r="AG16" s="4">
         <f>LOOKUP(_xlfn.CEILING.MATH(O16,1),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19)+LOOKUP(_xlfn.CEILING.MATH(P16),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19)+LOOKUP(_xlfn.CEILING.MATH(Q16),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19)+LOOKUP(_xlfn.CEILING.MATH(R16),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19)+_xlfn.IFNA(LOOKUP(_xlfn.CEILING.MATH(S16),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19),0)+_xlfn.IFNA(LOOKUP(_xlfn.CEILING.MATH(T16),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19),0)</f>
-        <v>1193.75</v>
-      </c>
-    </row>
-    <row r="17" spans="9:33" x14ac:dyDescent="0.25">
+        <v>1253.4375</v>
+      </c>
+    </row>
+    <row r="17" spans="9:33" x14ac:dyDescent="0.3">
       <c r="I17" s="4" t="s">
         <v>11</v>
       </c>
@@ -12314,30 +12309,30 @@
       </c>
       <c r="AB17" s="4">
         <f>LOOKUP(O17,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+LOOKUP(P17,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+LOOKUP(Q17,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+LOOKUP(R17,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+_xlfn.IFNA(LOOKUP(S17,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4),0)+_xlfn.IFNA(LOOKUP(T17,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4),0)</f>
-        <v>1007.0588235294117</v>
+        <v>1057.4117647058824</v>
       </c>
       <c r="AC17" s="4">
         <f>LOOKUP(X17,embodied_original!$C$5:$X$5,embodied_original!$C$7:$X$7)</f>
-        <v>993.24735716911789</v>
+        <v>1042.9097250275738</v>
       </c>
       <c r="AD17" s="4">
         <f>LOOKUP(Q17,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+LOOKUP(R17,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+_xlfn.IFNA(LOOKUP(S17,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4),0)+_xlfn.IFNA(LOOKUP(T17,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4),0)</f>
-        <v>503.52941176470586</v>
+        <v>528.70588235294122</v>
       </c>
       <c r="AE17" s="4">
         <f>LOOKUP(O17,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+LOOKUP(P17,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)</f>
-        <v>503.52941176470586</v>
+        <v>528.70588235294122</v>
       </c>
       <c r="AF17" s="4">
         <f>LOOKUP(N17,embodied_original!$C$5:$X$5,embodied_original!$C$7:$X$7)</f>
-        <v>705.88235294117646</v>
+        <v>741.17647058823525</v>
       </c>
       <c r="AG17" s="4">
         <f>LOOKUP(_xlfn.CEILING.MATH(O17,1),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19)+LOOKUP(_xlfn.CEILING.MATH(P17),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19)+LOOKUP(_xlfn.CEILING.MATH(Q17),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19)+LOOKUP(_xlfn.CEILING.MATH(R17),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19)+_xlfn.IFNA(LOOKUP(_xlfn.CEILING.MATH(S17),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19),0)+_xlfn.IFNA(LOOKUP(_xlfn.CEILING.MATH(T17),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19),0)</f>
-        <v>987.5</v>
-      </c>
-    </row>
-    <row r="18" spans="9:33" x14ac:dyDescent="0.25">
+        <v>1036.875</v>
+      </c>
+    </row>
+    <row r="18" spans="9:33" x14ac:dyDescent="0.3">
       <c r="I18" s="4" t="s">
         <v>3</v>
       </c>
@@ -12403,30 +12398,30 @@
       </c>
       <c r="AB18" s="4">
         <f>LOOKUP(O18,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+LOOKUP(P18,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+LOOKUP(Q18,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+LOOKUP(R18,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+_xlfn.IFNA(LOOKUP(S18,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4),0)+_xlfn.IFNA(LOOKUP(T18,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4),0)</f>
-        <v>1510.5882352941176</v>
+        <v>1586.1176470588239</v>
       </c>
       <c r="AC18" s="4">
         <f>LOOKUP(X18,embodied_original!$C$5:$X$5,embodied_original!$C$7:$X$7)</f>
-        <v>1267.6632889567977</v>
+        <v>1331.0464534046375</v>
       </c>
       <c r="AD18" s="4">
         <f>LOOKUP(Q18,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+LOOKUP(R18,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+_xlfn.IFNA(LOOKUP(S18,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4),0)+_xlfn.IFNA(LOOKUP(T18,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4),0)</f>
-        <v>1007.0588235294117</v>
+        <v>1057.4117647058824</v>
       </c>
       <c r="AE18" s="4">
         <f>LOOKUP(O18,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+LOOKUP(P18,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)</f>
-        <v>503.52941176470586</v>
+        <v>528.70588235294122</v>
       </c>
       <c r="AF18" s="4">
         <f>LOOKUP(N18,embodied_original!$C$5:$X$5,embodied_original!$C$7:$X$7)</f>
-        <v>945.94986397058847</v>
+        <v>993.24735716911789</v>
       </c>
       <c r="AG18" s="4">
         <f>LOOKUP(_xlfn.CEILING.MATH(O18,1),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19)+LOOKUP(_xlfn.CEILING.MATH(P18),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19)+LOOKUP(_xlfn.CEILING.MATH(Q18),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19)+LOOKUP(_xlfn.CEILING.MATH(R18),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19)+_xlfn.IFNA(LOOKUP(_xlfn.CEILING.MATH(S18),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19),0)+_xlfn.IFNA(LOOKUP(_xlfn.CEILING.MATH(T18),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19),0)</f>
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="19" spans="9:33" x14ac:dyDescent="0.25">
+        <v>1653.75</v>
+      </c>
+    </row>
+    <row r="19" spans="9:33" x14ac:dyDescent="0.3">
       <c r="I19" s="4" t="s">
         <v>3</v>
       </c>
@@ -12492,30 +12487,30 @@
       </c>
       <c r="AB19" s="4">
         <f>LOOKUP(O19,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+LOOKUP(P19,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+LOOKUP(Q19,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+LOOKUP(R19,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+_xlfn.IFNA(LOOKUP(S19,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4),0)+_xlfn.IFNA(LOOKUP(T19,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4),0)</f>
-        <v>1510.5882352941176</v>
+        <v>1586.1176470588239</v>
       </c>
       <c r="AC19" s="4">
         <f>LOOKUP(X19,embodied_original!$C$5:$X$5,embodied_original!$C$7:$X$7)</f>
-        <v>858.00441176470588</v>
+        <v>900.90463235294112</v>
       </c>
       <c r="AD19" s="4">
         <f>LOOKUP(Q19,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+LOOKUP(R19,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+_xlfn.IFNA(LOOKUP(S19,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4),0)+_xlfn.IFNA(LOOKUP(T19,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4),0)</f>
-        <v>1007.0588235294117</v>
+        <v>1057.4117647058824</v>
       </c>
       <c r="AE19" s="4">
         <f>LOOKUP(O19,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+LOOKUP(P19,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)</f>
-        <v>503.52941176470586</v>
+        <v>528.70588235294122</v>
       </c>
       <c r="AF19" s="4">
         <f>LOOKUP(N19,embodied_original!$C$5:$X$5,embodied_original!$C$7:$X$7)</f>
-        <v>705.88235294117646</v>
+        <v>741.17647058823525</v>
       </c>
       <c r="AG19" s="4">
         <f>LOOKUP(_xlfn.CEILING.MATH(O19,1),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19)+LOOKUP(_xlfn.CEILING.MATH(P19),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19)+LOOKUP(_xlfn.CEILING.MATH(Q19),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19)+LOOKUP(_xlfn.CEILING.MATH(R19),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19)+_xlfn.IFNA(LOOKUP(_xlfn.CEILING.MATH(S19),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19),0)+_xlfn.IFNA(LOOKUP(_xlfn.CEILING.MATH(T19),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19),0)</f>
-        <v>1443.75</v>
-      </c>
-    </row>
-    <row r="20" spans="9:33" x14ac:dyDescent="0.25">
+        <v>1515.9375</v>
+      </c>
+    </row>
+    <row r="20" spans="9:33" x14ac:dyDescent="0.3">
       <c r="I20" s="4" t="s">
         <v>11</v>
       </c>
@@ -12581,30 +12576,30 @@
       </c>
       <c r="AB20" s="4">
         <f>LOOKUP(O20,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+LOOKUP(P20,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+LOOKUP(Q20,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+LOOKUP(R20,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+_xlfn.IFNA(LOOKUP(S20,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4),0)+_xlfn.IFNA(LOOKUP(T20,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4),0)</f>
-        <v>1510.5882352941176</v>
+        <v>1586.1176470588239</v>
       </c>
       <c r="AC20" s="4">
         <f>LOOKUP(X20,embodied_original!$C$5:$X$5,embodied_original!$C$7:$X$7)</f>
-        <v>1966.5618285188073</v>
+        <v>2064.8899199447478</v>
       </c>
       <c r="AD20" s="4">
         <f>LOOKUP(Q20,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+LOOKUP(R20,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+_xlfn.IFNA(LOOKUP(S20,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4),0)+_xlfn.IFNA(LOOKUP(T20,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4),0)</f>
-        <v>1007.0588235294117</v>
+        <v>1057.4117647058824</v>
       </c>
       <c r="AE20" s="4">
         <f>LOOKUP(O20,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+LOOKUP(P20,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)</f>
-        <v>503.52941176470586</v>
+        <v>528.70588235294122</v>
       </c>
       <c r="AF20" s="4">
         <f>LOOKUP(N20,embodied_original!$C$5:$X$5,embodied_original!$C$7:$X$7)</f>
-        <v>1042.9097250275738</v>
+        <v>1095.0552112789526</v>
       </c>
       <c r="AG20" s="4">
         <f>LOOKUP(_xlfn.CEILING.MATH(O20,1),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19)+LOOKUP(_xlfn.CEILING.MATH(P20),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19)+LOOKUP(_xlfn.CEILING.MATH(Q20),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19)+LOOKUP(_xlfn.CEILING.MATH(R20),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19)+_xlfn.IFNA(LOOKUP(_xlfn.CEILING.MATH(S20),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19),0)+_xlfn.IFNA(LOOKUP(_xlfn.CEILING.MATH(T20),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19),0)</f>
-        <v>1687.5</v>
-      </c>
-    </row>
-    <row r="21" spans="9:33" x14ac:dyDescent="0.25">
+        <v>1771.875</v>
+      </c>
+    </row>
+    <row r="21" spans="9:33" x14ac:dyDescent="0.3">
       <c r="I21" s="4" t="s">
         <v>11</v>
       </c>
@@ -12670,27 +12665,27 @@
       </c>
       <c r="AB21" s="4">
         <f>LOOKUP(O21,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+LOOKUP(P21,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+LOOKUP(Q21,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+LOOKUP(R21,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+_xlfn.IFNA(LOOKUP(S21,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4),0)+_xlfn.IFNA(LOOKUP(T21,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4),0)</f>
-        <v>1510.5882352941176</v>
+        <v>1586.1176470588239</v>
       </c>
       <c r="AC21" s="4">
         <f>LOOKUP(X21,embodied_original!$C$5:$X$5,embodied_original!$C$7:$X$7)</f>
-        <v>1467.4787148786133</v>
+        <v>1540.8526506225442</v>
       </c>
       <c r="AD21" s="4">
         <f>LOOKUP(Q21,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+LOOKUP(R21,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+_xlfn.IFNA(LOOKUP(S21,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4),0)+_xlfn.IFNA(LOOKUP(T21,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4),0)</f>
-        <v>1007.0588235294117</v>
+        <v>1057.4117647058824</v>
       </c>
       <c r="AE21" s="4">
         <f>LOOKUP(O21,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)+LOOKUP(P21,embodied_original!$C$2:$K$2,embodied_original!$C$4:$K$4)</f>
-        <v>503.52941176470586</v>
+        <v>528.70588235294122</v>
       </c>
       <c r="AF21" s="4">
         <f>LOOKUP(N21,embodied_original!$C$5:$X$5,embodied_original!$C$7:$X$7)</f>
-        <v>945.94986397058847</v>
+        <v>993.24735716911789</v>
       </c>
       <c r="AG21" s="4">
         <f>LOOKUP(_xlfn.CEILING.MATH(O21,1),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19)+LOOKUP(_xlfn.CEILING.MATH(P21),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19)+LOOKUP(_xlfn.CEILING.MATH(Q21),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19)+LOOKUP(_xlfn.CEILING.MATH(R21),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19)+_xlfn.IFNA(LOOKUP(_xlfn.CEILING.MATH(S21),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19),0)+_xlfn.IFNA(LOOKUP(_xlfn.CEILING.MATH(T21),embodied_original!$C$17:$G$17,embodied_original!$C$19:$G$19),0)</f>
-        <v>1575</v>
+        <v>1653.75</v>
       </c>
     </row>
   </sheetData>
@@ -12707,18 +12702,18 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -12726,7 +12721,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -12758,7 +12753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -12793,45 +12788,45 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C4" s="7">
-        <f>20*C3/$B3</f>
-        <v>251.76470588235293</v>
+        <f>21*C3/$B3</f>
+        <v>264.35294117647061</v>
       </c>
       <c r="D4" s="7">
-        <f t="shared" ref="D4:K4" si="0">20*D3/$B3</f>
-        <v>251.76470588235293</v>
+        <f t="shared" ref="D4:K4" si="0">21*D3/$B3</f>
+        <v>264.35294117647061</v>
       </c>
       <c r="E4" s="7">
         <f t="shared" si="0"/>
-        <v>251.76470588235293</v>
+        <v>264.35294117647061</v>
       </c>
       <c r="F4" s="7">
         <f t="shared" si="0"/>
-        <v>251.76470588235293</v>
+        <v>264.35294117647061</v>
       </c>
       <c r="G4" s="7">
         <f t="shared" si="0"/>
-        <v>251.76470588235293</v>
+        <v>264.35294117647061</v>
       </c>
       <c r="H4" s="7">
         <f t="shared" si="0"/>
-        <v>251.76470588235293</v>
+        <v>264.35294117647061</v>
       </c>
       <c r="I4" s="7">
         <f t="shared" si="0"/>
-        <v>251.76470588235293</v>
+        <v>264.35294117647061</v>
       </c>
       <c r="J4" s="7">
         <f t="shared" si="0"/>
-        <v>251.76470588235293</v>
+        <v>264.35294117647061</v>
       </c>
       <c r="K4" s="7">
         <f t="shared" si="0"/>
-        <v>251.76470588235293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+        <v>264.35294117647061</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -12902,7 +12897,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -12976,97 +12971,97 @@
         <v>1671.5775542409863</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C7" s="7">
-        <f>20*C6/$B6</f>
-        <v>705.88235294117646</v>
+        <f>21*C6/$B6</f>
+        <v>741.17647058823525</v>
       </c>
       <c r="D7" s="7">
-        <f t="shared" ref="D7:X7" si="1">20*D6/$B6</f>
-        <v>741.17647058823525</v>
+        <f t="shared" ref="D7:X7" si="1">21*D6/$B6</f>
+        <v>778.23529411764707</v>
       </c>
       <c r="E7" s="7">
         <f t="shared" si="1"/>
-        <v>778.23529411764707</v>
+        <v>817.14705882352939</v>
       </c>
       <c r="F7" s="7">
         <f t="shared" si="1"/>
-        <v>817.14705882352939</v>
+        <v>858.00441176470588</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="1"/>
-        <v>858.00441176470588</v>
+        <v>900.90463235294112</v>
       </c>
       <c r="H7" s="7">
         <f t="shared" si="1"/>
-        <v>900.90463235294123</v>
+        <v>945.94986397058835</v>
       </c>
       <c r="I7" s="7">
         <f t="shared" si="1"/>
-        <v>945.94986397058847</v>
+        <v>993.24735716911789</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" si="1"/>
-        <v>993.24735716911789</v>
+        <v>1042.9097250275738</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" si="1"/>
-        <v>1042.9097250275738</v>
+        <v>1095.0552112789526</v>
       </c>
       <c r="L7" s="7">
         <f t="shared" si="1"/>
-        <v>1095.0552112789526</v>
+        <v>1149.8079718429001</v>
       </c>
       <c r="M7" s="7">
         <f t="shared" si="1"/>
-        <v>1149.8079718429003</v>
+        <v>1207.2983704350452</v>
       </c>
       <c r="N7" s="7">
         <f t="shared" si="1"/>
-        <v>1207.2983704350452</v>
+        <v>1267.6632889567975</v>
       </c>
       <c r="O7" s="7">
         <f t="shared" si="1"/>
-        <v>1267.6632889567977</v>
+        <v>1331.0464534046375</v>
       </c>
       <c r="P7" s="7">
         <f t="shared" si="1"/>
-        <v>1331.0464534046378</v>
+        <v>1397.5987760748696</v>
       </c>
       <c r="Q7" s="7">
         <f t="shared" si="1"/>
-        <v>1397.5987760748699</v>
+        <v>1467.4787148786131</v>
       </c>
       <c r="R7" s="7">
         <f t="shared" si="1"/>
-        <v>1467.4787148786133</v>
+        <v>1540.8526506225442</v>
       </c>
       <c r="S7" s="7">
         <f t="shared" si="1"/>
-        <v>1540.8526506225442</v>
+        <v>1617.8952831536715</v>
       </c>
       <c r="T7" s="7">
         <f t="shared" si="1"/>
-        <v>1617.8952831536715</v>
+        <v>1698.7900473113548</v>
       </c>
       <c r="U7" s="7">
         <f t="shared" si="1"/>
-        <v>1698.790047311355</v>
+        <v>1783.7295496769227</v>
       </c>
       <c r="V7" s="7">
         <f t="shared" si="1"/>
-        <v>1783.7295496769227</v>
+        <v>1872.9160271607689</v>
       </c>
       <c r="W7" s="7">
         <f t="shared" si="1"/>
-        <v>1872.9160271607689</v>
+        <v>1966.5618285188073</v>
       </c>
       <c r="X7" s="7">
         <f t="shared" si="1"/>
-        <v>1966.5618285188073</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+        <v>2064.8899199447478</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -13089,7 +13084,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -13115,33 +13110,33 @@
         <v>520</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C10" s="7">
-        <f>20*C9/$B9</f>
-        <v>294.11764705882354</v>
+        <f>21*C9/$B9</f>
+        <v>308.8235294117647</v>
       </c>
       <c r="D10" s="7">
-        <f t="shared" ref="D10:H10" si="2">20*D9/$B9</f>
-        <v>352.94117647058823</v>
+        <f t="shared" ref="D10:H10" si="2">21*D9/$B9</f>
+        <v>370.58823529411762</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="2"/>
-        <v>376.47058823529414</v>
+        <v>395.29411764705884</v>
       </c>
       <c r="F10" s="7">
         <f t="shared" si="2"/>
-        <v>470.58823529411762</v>
+        <v>494.11764705882354</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="2"/>
-        <v>588.23529411764707</v>
+        <v>617.64705882352939</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" si="2"/>
-        <v>611.76470588235293</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+        <v>642.35294117647061</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -13164,7 +13159,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -13190,33 +13185,33 @@
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C13" s="7">
-        <f>20*C12/$B12</f>
-        <v>470.58823529411762</v>
+        <f>21*C12/$B12</f>
+        <v>494.11764705882354</v>
       </c>
       <c r="D13" s="7">
-        <f t="shared" ref="D13:H13" si="3">20*D12/$B12</f>
-        <v>529.41176470588232</v>
+        <f t="shared" ref="D13:H13" si="3">21*D12/$B12</f>
+        <v>555.88235294117646</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="3"/>
-        <v>588.23529411764707</v>
+        <v>617.64705882352939</v>
       </c>
       <c r="F13" s="7">
         <f t="shared" si="3"/>
-        <v>617.64705882352939</v>
+        <v>648.52941176470586</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="3"/>
-        <v>764.70588235294122</v>
+        <v>802.94117647058829</v>
       </c>
       <c r="H13" s="7">
         <f t="shared" si="3"/>
-        <v>823.52941176470586</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+        <v>864.70588235294122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -13257,7 +13252,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -13301,57 +13296,57 @@
         <v>1971.6000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C16" s="7">
-        <f>20*C15/$B15</f>
-        <v>1509.8823529411766</v>
+        <f>21*C15/$B15</f>
+        <v>1585.3764705882354</v>
       </c>
       <c r="D16" s="7">
-        <f t="shared" ref="D16:N16" si="4">20*D15/$B15</f>
-        <v>1509.8823529411766</v>
+        <f t="shared" ref="D16:N16" si="4">21*D15/$B15</f>
+        <v>1585.3764705882354</v>
       </c>
       <c r="E16" s="7">
         <f t="shared" si="4"/>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="F16" s="7">
         <f t="shared" si="4"/>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="4"/>
-        <v>1509.8823529411766</v>
+        <v>1585.3764705882354</v>
       </c>
       <c r="H16" s="7">
         <f t="shared" si="4"/>
-        <v>1757.8823529411766</v>
+        <v>1845.7764705882353</v>
       </c>
       <c r="I16" s="7">
         <f t="shared" si="4"/>
-        <v>1852.7058823529412</v>
+        <v>1945.3411764705879</v>
       </c>
       <c r="J16" s="7">
         <f t="shared" si="4"/>
-        <v>1947.5294117647059</v>
+        <v>2044.9058823529413</v>
       </c>
       <c r="K16" s="7">
         <f t="shared" si="4"/>
-        <v>2035.0588235294117</v>
+        <v>2136.8117647058821</v>
       </c>
       <c r="L16" s="7">
         <f t="shared" si="4"/>
-        <v>2129.8823529411766</v>
+        <v>2236.3764705882354</v>
       </c>
       <c r="M16" s="7">
         <f t="shared" si="4"/>
-        <v>2224.705882352941</v>
+        <v>2335.9411764705883</v>
       </c>
       <c r="N16" s="7">
         <f t="shared" si="4"/>
-        <v>2319.5294117647059</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2435.5058823529416</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -13371,7 +13366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -13394,29 +13389,29 @@
         <v>295</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C19" s="7">
-        <f>20*C18/$B18</f>
-        <v>237.5</v>
+        <f>21*C18/$B18</f>
+        <v>249.375</v>
       </c>
       <c r="D19" s="7">
-        <f t="shared" ref="D19:G19" si="5">20*D18/$B18</f>
-        <v>237.5</v>
+        <f t="shared" ref="D19:G19" si="5">21*D18/$B18</f>
+        <v>249.375</v>
       </c>
       <c r="E19" s="7">
         <f t="shared" si="5"/>
-        <v>256.25</v>
+        <v>269.0625</v>
       </c>
       <c r="F19" s="7">
         <f t="shared" si="5"/>
-        <v>275</v>
+        <v>288.75</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="5"/>
-        <v>368.75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>387.1875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -13427,7 +13422,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -13441,14 +13436,14 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C22" s="7">
-        <f>20*C21/$B21</f>
-        <v>409.09090909090907</v>
+        <f>21*C21/$B21</f>
+        <v>429.54545454545456</v>
       </c>
       <c r="D22" s="7">
-        <f>20*D21/$B21</f>
-        <v>1090.909090909091</v>
+        <f>21*D21/$B21</f>
+        <v>1145.4545454545455</v>
       </c>
     </row>
   </sheetData>
